--- a/data/hotels_by_city/Dallas/Dallas_shard_220.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_220.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="439">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>anita696</t>
+  </si>
+  <si>
     <t>05/29/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>Alesha at the front desk was so accommodating! She gave us our room and unfortunately it was not clean so she apologetically gave us another room. That room also had uncleaned areas! Alesha courteously gave us our money back and apologized once again. I gave this review 2 stars because the customer service was great and the rooms, although dirty, were nice sized.More</t>
   </si>
   <si>
+    <t>7venessam</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109757-r560164358-Extended_Stay_America_Dallas_Las_Colinas_Green_Park_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -216,6 +222,9 @@
     <t>Bad Area, Hotel was separate building from the front desk, Bed was squeaky and hurt my back, Tv did not work, reported it to front desk and did not get it working until the next night.  If you need towels or blankets changed, you have to walk to the front office building to get it.More</t>
   </si>
   <si>
+    <t>nikitap249</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109757-r532771386-Extended_Stay_America_Dallas_Las_Colinas_Green_Park_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -243,6 +252,9 @@
     <t>Too Many to List....complained to corporate = No resolution. Complained at staff = treated to get kicked out.   Fleas in room. RUDE Staff.  No Ethic from management.  Check in took 15 min just for agent to come to front desk from sleep... was told I had no room, yet we paid upfront... after 5 min all the sudden she stated management did something in the system and was one room left for my reservation.More</t>
   </si>
   <si>
+    <t>gauravj372</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109757-r531582624-Extended_Stay_America_Dallas_Las_Colinas_Green_Park_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -270,6 +282,9 @@
     <t>I was checked-in to a room that was not even ready. The bed-sheet were not made, it looked like someone has checked out and the room was not done with for the next. There were bits of paper on the floor, the telephone in the room was also not working. I had to walk back to the reception, which was in a separate building and request for a change of room.More</t>
   </si>
   <si>
+    <t>James R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109757-r530210124-Extended_Stay_America_Dallas_Las_Colinas_Green_Park_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -297,6 +312,9 @@
     <t>The rooms are dirty apparently only crackheads live here and the staff is rude. They advertise a pool but say it closed October 1st even though it's bright and sunny. I had to switch rooms three times because it was filthy. More</t>
   </si>
   <si>
+    <t>Aroosa N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109757-r507535094-Extended_Stay_America_Dallas_Las_Colinas_Green_Park_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -324,6 +342,9 @@
     <t>This was by far the worst experience I have ever had at a hotel. I will never recommend this hotel to anyone, and I will leave a review on every website informing others of my experience. I booked a hotel room for 3 nights at Extended Stay through Hotels.com. I received multiple confirmations from the website ensuring me my room was reserved. I arrived on the day of check-in to the hotel and there was only one lady working behind the counter. She told me I did have a reservation under my name but the hotel was "overbooked". I asked how this has happened and she did not respond. She called the other Extended Stay hotel next door and was told there were no more rooms there as well. I was very visibly upset and demanded to know how a hotel can overbook a room when I made a reservation a month ago; she again did not respond. She typed a bunch of things in the computer and eventually went to go "check" to see if there was a room available on the first floor. During that time, I called Hotels.com and was informed me that Hotels.com would find me a new place to stay (mind you, it was 8:30 pm). While I was standing in the Extended Stay lobby, the receptionist came back and told me there was a room available; I asked why she did not offer it...This was by far the worst experience I have ever had at a hotel. I will never recommend this hotel to anyone, and I will leave a review on every website informing others of my experience. I booked a hotel room for 3 nights at Extended Stay through Hotels.com. I received multiple confirmations from the website ensuring me my room was reserved. I arrived on the day of check-in to the hotel and there was only one lady working behind the counter. She told me I did have a reservation under my name but the hotel was "overbooked". I asked how this has happened and she did not respond. She called the other Extended Stay hotel next door and was told there were no more rooms there as well. I was very visibly upset and demanded to know how a hotel can overbook a room when I made a reservation a month ago; she again did not respond. She typed a bunch of things in the computer and eventually went to go "check" to see if there was a room available on the first floor. During that time, I called Hotels.com and was informed me that Hotels.com would find me a new place to stay (mind you, it was 8:30 pm). While I was standing in the Extended Stay lobby, the receptionist came back and told me there was a room available; I asked why she did not offer it before and once again she did not respond. Eventually, Hotels.com called her, spoke to her (right in front me) and she told the lady on the phone, "The computer on my end won't let give her the empty room so can you just find her a new hotel?" I left furious. She informed that she had to inform 8 others the hotel was overbooked.I booked this hotel because I had to take my bar exam the following three days. I don't like writing reviews, nor do I like reading them. I really regret not taking the reviews seriously for this hotel. Book a room at this place at your own risk.More</t>
   </si>
   <si>
+    <t>529nirits</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109757-r506365166-Extended_Stay_America_Dallas_Las_Colinas_Green_Park_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -348,6 +369,9 @@
     <t>We was in the manager suite (only 1 room like this in the hotel) and it was huge room, it is very clean. quiet area. very nice staff. there is safe feeling in the hotel, and quality guests. great place.More</t>
   </si>
   <si>
+    <t>John H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109757-r544350769-Extended_Stay_America_Dallas_Las_Colinas_Green_Park_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -366,6 +390,9 @@
     <t>December 2017</t>
   </si>
   <si>
+    <t>ashokkumas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109757-r497446489-Extended_Stay_America_Dallas_Las_Colinas_Green_Park_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -393,6 +420,9 @@
     <t>Not recommended. There is no big stroller at front desk. When i asked for it, they said it might be somewhere in the hotel and not their duty to provide to me. Later, there was a maintenance issues,which wasn't handled during my complete stay. Very very poor breakfastMore</t>
   </si>
   <si>
+    <t>jaynem80</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109757-r495537356-Extended_Stay_America_Dallas_Las_Colinas_Green_Park_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -417,6 +447,9 @@
     <t>This hotel is easily accessible to freeways, shopping areas, and not too far from downtown Dallas (but far enough away to relax!).  It is surrounded by green belts and beautiful open space to walk and to breathe.  The manager and staff are very friendly and accommodating, and I highly recommend this facility.More</t>
   </si>
   <si>
+    <t>17micheley</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109757-r492911805-Extended_Stay_America_Dallas_Las_Colinas_Green_Park_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -441,6 +474,9 @@
     <t>I had a reservation to stay at this establishment for five days. After I checked in, I went to my room, only to find out that it was already occupied.I returned to the front desk and informed the clerk that the room was taken. She was very courteous and gave us another room. The next room I received was dirty and there mice traps on the floor against the walls of the room. I again returned to the front desk to inform the staff of the condition of which I found the room. I asked to be placed into another building because I refused to sleep in a building with rodents. She again obliged and gave us a room that was located in the main building. This room again was not cleaned well and had a strange smell as we walked in. This was to be a 5 day stay which turned out to be a 1 night stay instead.More</t>
   </si>
   <si>
+    <t>rickymJ1890CN</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109757-r492481829-Extended_Stay_America_Dallas_Las_Colinas_Green_Park_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -465,6 +501,9 @@
     <t>Just poor communication that did not get across to anyone unless you had to sleep in my room knowing I have to study, can't watch tv comfortablely an can't sleep with the ac fan motor making so much noiseMore</t>
   </si>
   <si>
+    <t>forfun2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109757-r491922585-Extended_Stay_America_Dallas_Las_Colinas_Green_Park_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -492,6 +531,9 @@
     <t>I needed the room for a few hrs only, to just sleep as I was passing through. When I made the reservation(with a third party) I did it wrong so they could not don't it. I spoke to Tonya and she took care of everything, she called the third party company for me and figure it out i was really grateful for that.And she was extremely nice as I needed a late check out. She was amazing, people like her are usually not appreciated enough in the company she deserve a hard pat in the backMore</t>
   </si>
   <si>
+    <t>Jefferychaney</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109757-r491742619-Extended_Stay_America_Dallas_Las_Colinas_Green_Park_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -510,6 +552,9 @@
     <t>Very nice I enjoyed everything there the room was very comfortable staff members really nice and being a delay on a really nice comfortable bed great, I'll be more than happy to stay here again and again very nice location to everything is close by.More</t>
   </si>
   <si>
+    <t>tiffanylW7733GV</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109757-r490854226-Extended_Stay_America_Dallas_Las_Colinas_Green_Park_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -534,6 +579,9 @@
     <t>Need better cleaning staff and also staff that tell guest information about the Hotel such as the location of the swim pool, shuttle, laundry room. Also the hotel need invest mold and mildew cleaner. Overall the hotel is average.More</t>
   </si>
   <si>
+    <t>Amber R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109757-r489401567-Extended_Stay_America_Dallas_Las_Colinas_Green_Park_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -561,6 +609,9 @@
     <t>My stay here was the best. I've had absolutely no complaints! If you happen to stay when Tonya is working, you are in luck! She makes you feel right at home; assisting in anything you might possibly need! Definitely recommend this place to others!! More</t>
   </si>
   <si>
+    <t>Ted M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109757-r485481009-Extended_Stay_America_Dallas_Las_Colinas_Green_Park_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -585,6 +636,9 @@
     <t>I have been staying on and off for 4 years the place is not so great but having Tanya here makes my stay easier she is very attentive to my needs  and her custimer service us excellent.I had stayed in the other building and the manager is very rude the I wont stay at thst one but between Tanya and Kenneth they make it worth itMore</t>
   </si>
   <si>
+    <t>bcakes82</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109757-r484993477-Extended_Stay_America_Dallas_Las_Colinas_Green_Park_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -612,6 +666,9 @@
     <t>I namely like Tonya on the 1st shift she is a amazing. I am currently at the meadow creek location mext door to green park and i only like it for the full stove. And there are a couple of friendly people at meadow creek but nothing like the staff at green parkMore</t>
   </si>
   <si>
+    <t>The_4Til</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109757-r475351076-Extended_Stay_America_Dallas_Las_Colinas_Green_Park_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -636,6 +693,9 @@
     <t>This is our second long term stay and we have been very satisfied both time. Tonya and the front desk staff are awesome. They have treated us with kindness and the utmost professionalism. Housekeeping and maintenance keep the rooms and property well maintained and clean They also accept pets.  Overall a very positive experience.More</t>
   </si>
   <si>
+    <t>leahalanis</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109757-r463819780-Extended_Stay_America_Dallas_Las_Colinas_Green_Park_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -660,6 +720,9 @@
     <t>I have been staying here since December and can't say enough good things about it! Everyone here goes out of their way to be helpful. Tonya, Jodi, Lucia, everyone here have been so helpful and accommodating. I'm a night shift worker, and it's always very quiet and comfortable. The rooms are outstanding, nicer than most apartments, and much more reasonably priced than most places in the area. This really does feel more like a home than a hotel!More</t>
   </si>
   <si>
+    <t>Pernellpaid</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109757-r457478048-Extended_Stay_America_Dallas_Las_Colinas_Green_Park_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -687,6 +750,9 @@
     <t>Tonya, was great and professional at the front desk. She made my stay comfortable and pleasant. Most positive I will be returning! Recommending this location to all my friends and family. Strongly recommend this app to all my friends and family.More</t>
   </si>
   <si>
+    <t>shaun n</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109757-r456556158-Extended_Stay_America_Dallas_Las_Colinas_Green_Park_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -708,6 +774,9 @@
     <t>Rooms are nice and spacious. Cleanings once a week. Lucia athe the front desk is amazing. Anytime I had a complaint or issue she took care of it quickly! Stayed here for 6 months with only a few issues. I would definitely stay here again.More</t>
   </si>
   <si>
+    <t>Donald G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109757-r452783973-Extended_Stay_America_Dallas_Las_Colinas_Green_Park_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -729,6 +798,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>wstevend</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109757-r451974457-Extended_Stay_America_Dallas_Las_Colinas_Green_Park_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -753,6 +825,9 @@
     <t>This is the nicest Extended Stay America i've been in!Lucia was a perfect 10 and she looked after me when i first arrived and took the time to make sure I had everything i needed! When I come to Dallas again, i'll be staying here!More</t>
   </si>
   <si>
+    <t>Elizabeth D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109757-r451254776-Extended_Stay_America_Dallas_Las_Colinas_Green_Park_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -777,6 +852,9 @@
     <t>I love staying here while in Irving, Texas for business. The rooms are clean and updated, with great amenities. The staff is extremely cheery, and helpful. Tonya at the front desk is always helpful whenever I have any questions or need something like towels, tp, mail, ect. She goes above and beyond to make sure I have what I need. It's so great to see a friendly, kind face here everyday. It definitely makes this place feel more like home for the time being.More</t>
   </si>
   <si>
+    <t>steve1272</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109757-r451072923-Extended_Stay_America_Dallas_Las_Colinas_Green_Park_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -804,6 +882,9 @@
     <t>I was a guest of the Extended Stay on Green Park Dr for 18months recently.The staff is professional,caring and always considerate The location is ideal and the corporate rate was attractiveWould recommend this place to all who are looking for valueconvenience and a staff that will address any issues that ariseIf back in the area, I will definetly be at the Extended StayIrving &amp; Los ColinasMore</t>
   </si>
   <si>
+    <t>Don W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109757-r450279929-Extended_Stay_America_Dallas_Las_Colinas_Green_Park_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -819,6 +900,9 @@
     <t>I've stayed here numerous times and always find the room clean, very functional, and a good value. The kichenette is great with a full size refrigerator. The staff is always responsive and friendly. I highly recommend the Green Park location.They've also recently improved the WiFi.</t>
   </si>
   <si>
+    <t>Renata C. F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109757-r448644620-Extended_Stay_America_Dallas_Las_Colinas_Green_Park_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -837,6 +921,9 @@
     <t>My stay at this hotel was horrendous. The staff was brand new and had no clue how to due their job. We know because they shared this fact with us. One even went as far to tell us that he was disabled and should not be doing this job. The television did not change channel no matter how much we tried to fix it. The room had huge water bugs and the smell was odd. Trying to get an extra pillow was like pulling teeth. We were told the first night that laundry was being done and none was available. The next day, my husband had to threaten the staff members job if he did not get some extra pillows, it should not have had to go that far. The breakfast was not a full one as advertised, the pool was murky and unappealing. The overall state of the hotel was poor. Our stay was far from peaceful. I would not recommend this hotel at all. Pay more and get more. This hotel is more like a one star.More</t>
   </si>
   <si>
+    <t>Kapil K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109757-r447951934-Extended_Stay_America_Dallas_Las_Colinas_Green_Park_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -864,6 +951,9 @@
     <t>Good experience n good ambience at front desk. Rooms are neat n clean.Lucia is at front desk n very kind to everybody. She listens everybody and helps everybody who comes at front desk.Corridor is also very neat and laundry room is available for guest that is best part of hotel but only difference is that no one hotel near by takes charge for laundry machines but extended stay takes charges for laundryMore</t>
   </si>
   <si>
+    <t>Heather F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109757-r445156604-Extended_Stay_America_Dallas_Las_Colinas_Green_Park_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -891,6 +981,9 @@
     <t>Tonya who works at the front desk checked me in today and she was so accommodating and friendly and helpful! I love this place now because of her welcoming and welcoming attitude. She found me a room on the floor I wanted and the building I preferred.Thank you Tonya.More</t>
   </si>
   <si>
+    <t>Mufflon J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109757-r444691127-Extended_Stay_America_Dallas_Las_Colinas_Green_Park_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -906,6 +999,9 @@
     <t>Weekly different Roomrates,Weekly Roomservice is only changing Towels(when he comes)unfriendly Personal on the Frontdesk(only Miss Lucia try to help you and is friendly)The Standard between this 3 Houses is to big.</t>
   </si>
   <si>
+    <t>texsafaris</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109757-r444371914-Extended_Stay_America_Dallas_Las_Colinas_Green_Park_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -915,6 +1011,9 @@
     <t>December 14, 2016</t>
   </si>
   <si>
+    <t>DSarkies</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109757-r400521011-Extended_Stay_America_Dallas_Las_Colinas_Green_Park_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -969,6 +1068,9 @@
     <t>I've stayed at this property several times over the last few years and really like it. The staff is great, the rooms well equipped, and a very convenient location. Housekeeping is only weekly, but that is enough for me and they do a great job. Free coffee, fruit, and granola bars in the morning are a nice touch.My only complaint is the wi-fi system, which is 1990 modem slow. I understand they are working on it though.More</t>
   </si>
   <si>
+    <t>Dan H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109757-r391679052-Extended_Stay_America_Dallas_Las_Colinas_Green_Park_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -987,6 +1089,9 @@
     <t>I would highly recommend staying at the Extended Stay America in Las Colinas. The rooms were very clean and the service was always friendly and accommodating. The pool is large enough for many families to enjoy.  They have a gas grill for guests to use, which I did, and a great selection for breakfast snacks in the mornings. The coffee is always ready for you no later than 6 AM every morning. The room I was in had a really nice view of the sunrise over the trees.More</t>
   </si>
   <si>
+    <t>Brandie C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109757-r390846028-Extended_Stay_America_Dallas_Las_Colinas_Green_Park_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -1005,6 +1110,9 @@
     <t>This hotel had horrible service. They only clean the room once a week after you had been there a week. So during a 13 day trip, my room was serviced once. If you wanted clean towels or sheets, you had to bring them to the front desk yourself. When we asked for additional pillows we were told we didn't need that many and they would give us 1. You have to request hangers. The breakfast consisited of single serve breakfast bars, coffee, browning apples, tea, and oatmeal.The rooms were filthy. I constantly found long black hairs that were not mine in my bed, sink, and in every towel I received. There was a hole in my freezer, glass by the pool, odd stains on the furniture, and an elavator that made wierd noises and would stall. There are several people who live in this hotel and seem to be content but I won't be staying there again. More</t>
   </si>
   <si>
+    <t>moorean6</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109757-r371853176-Extended_Stay_America_Dallas_Las_Colinas_Green_Park_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -1026,6 +1134,9 @@
     <t>We made reservations for the Extended Stay America next door thru priceline, but when we arrived, they told us they were overbooked so we were bumped to this hotel. We were in the 2nd building, first floor. Front desk clerk was friendly and informative. Room was clean and spacious, two double beds and a sleeper sofa. Main issues in our room were- toilet kept running after flushing, one window was cracked all the way across the width, and we had trouble getting the room to cool down because the air blew right up and into the curtains (with the cracked window)- we had to weigh the curtains down with boots to get the air flowing into the room. The air conditioner kept turning off and on during the night, and as light sleepers, this was annoying. When it turned off, we could hear some noise from outside or other rooms. Breakfast was in the lobby in the first building, so that was inconvenient for us, since we had young kids with us, but it wasn't much of a breakfast anyway. Only options were instant oatmeal, peanut butter granola bars, and muffins. Appliances in the room worked, cabinets had new paint and there was a little odor remaining from the paint but not overwhelming. Our car got keyed in the parking lot, but that's no fault of the hotel's.More</t>
   </si>
   <si>
+    <t>Josephjones1911</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109757-r371021335-Extended_Stay_America_Dallas_Las_Colinas_Green_Park_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -1044,6 +1155,9 @@
     <t>March 2016</t>
   </si>
   <si>
+    <t>joncat0930</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109757-r363179792-Extended_Stay_America_Dallas_Las_Colinas_Green_Park_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -1063,6 +1177,9 @@
   </si>
   <si>
     <t>I will never stay at an extended stay ever again. Reserved and got a conformation on 2 rooms. Got there  30 minutes later and was told only one room was available because other one was dirty. So I slept on plastic cover on fold out couch with no pillow or cover. So next day I was sent to another extended stay, totally away from my guys working with me. I travel probably 40 weeks of year and this is ABSOLUTELY the worst hotel ever. They don't clean your rooms till the 8th day,so when I asked she told me you can get your room cleaned for $5. Who in the h&amp;$@ wants a room cleaned every8 days, no towels, or clean sheets. The linen is as cheap as you can get. People put their trash in the hallway so when you leave your room all you smell is garbage. They have ashtrays just all entrances with signs saying no smoking within 100 ft. of entrance, I mean really. Went to checkout and no luggage cart , looked on all floors and couldn't find one. Ac wouldn't cool room and sounded louder than the damn train that runs all day and night. Told both front desk I was checking out tomorrow, well went there the next day for receipt and no receipt, lady at one told me this happens every morning at this time so I  was late for work. NEVER...I will never stay at an extended stay ever again. Reserved and got a conformation on 2 rooms. Got there  30 minutes later and was told only one room was available because other one was dirty. So I slept on plastic cover on fold out couch with no pillow or cover. So next day I was sent to another extended stay, totally away from my guys working with me. I travel probably 40 weeks of year and this is ABSOLUTELY the worst hotel ever. They don't clean your rooms till the 8th day,so when I asked she told me you can get your room cleaned for $5. Who in the h&amp;$@ wants a room cleaned every8 days, no towels, or clean sheets. The linen is as cheap as you can get. People put their trash in the hallway so when you leave your room all you smell is garbage. They have ashtrays just all entrances with signs saying no smoking within 100 ft. of entrance, I mean really. Went to checkout and no luggage cart , looked on all floors and couldn't find one. Ac wouldn't cool room and sounded louder than the damn train that runs all day and night. Told both front desk I was checking out tomorrow, well went there the next day for receipt and no receipt, lady at one told me this happens every morning at this time so I  was late for work. NEVER EVER AGAIN. More</t>
+  </si>
+  <si>
+    <t>wayneknight1980</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109757-r342486039-Extended_Stay_America_Dallas_Las_Colinas_Green_Park_Dr-Irving_Texas.html</t>
@@ -1100,6 +1217,9 @@
 In the morning I discovered where most hotel room doors shut...There are two Extended Stay America's right next to each other. Extended Stay and Extended Stay Deluxe. It would be nice if they added Deluxe to the sign of the Deluxe one. Once I got the right place it was about 11pm. The front desk clerk mentioned that I barely made it before she left. I'm assuming they shut down the lobby at night and you have to call someone in if you have a problem. My room was in the second building on the 3rd floor near the end of the hall. You would struggle to find a room farther from the lobby. The main light in the room doesn't work. I had to feel around in the dark to find a lamp to turn on. There are three light switches that do nothing. One by the door. One in the kitchen. And one at the foot of the bed. I assume one is supposed to turn that main light on. I'm not sure what the purpose of the others is. The chairs have digusting looking stains on them. So I had to put a towel on the chair before I could sit in it. I like the room cool so I had to turn the AC on. It didn't stay on long because It's cold outside but the AC sounded like a lawnmower when it was on. In the morning I discovered where most hotel room doors shut completely behind you, this door only halfway shuts and anyone could've come in my room while I was asleep. Everytime you enter/leave you have to pull/push the door shut all the way.The shower worked good but there was mildew between some of the tiles and long black hairs on the shower wall.The toilet seat is really loose. Someone could fall off of it.For breakfast they had 4-5 different flavors of instant oatmeal and both medium and dark roast coffee in the lobby. Checkout was quick and easy. The guy working the front desk was friendly. Due to housekeeping and maintenance issues I'd say this is a 2-star hotel.More</t>
   </si>
   <si>
+    <t>athenascott</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109757-r342164668-Extended_Stay_America_Dallas_Las_Colinas_Green_Park_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -1118,6 +1238,9 @@
     <t>My room was in the 2nd building by the door going outside. All night there were people yelling and slamming doors, the hallway smelled horrible and the room was not clean. When I called the front desk about the noise I was told there was nothing they could do, it was 1am! The staff was not friendly at all and refused to give clean towels when I asked! I will never stay in an Extended Stay America again!More</t>
   </si>
   <si>
+    <t>Diam0nd00</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109757-r340183584-Extended_Stay_America_Dallas_Las_Colinas_Green_Park_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -1136,6 +1259,9 @@
     <t>November 2015</t>
   </si>
   <si>
+    <t>C D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109757-r312688540-Extended_Stay_America_Dallas_Las_Colinas_Green_Park_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -1161,6 +1287,9 @@
   </si>
   <si>
     <t>I have no complaints; the bed is comfortable; had a slight issue with the bathroom and it was taken care of within hours; ladies at the front desk including the asst mgr are all great and accommodating.  As with most things in life, things can be a hit or a miss.  ESA-Green Park has been a hit for me!!!  I have been here for work -away from home--for 80 days and countingMore</t>
+  </si>
+  <si>
+    <t>andea m</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109757-r303830500-Extended_Stay_America_Dallas_Las_Colinas_Green_Park_Dr-Irving_Texas.html</t>
@@ -1184,6 +1313,9 @@
   <si>
     <t>We drove 1500 miles for my husband's new career opportunity in Fort Worth. This ESA hotel was chosen for 2-month extended stay by the HR Director. HR picked the perfect place for us &amp; our small pet. Though it was a difficult travel of 3 days, only to stop at "less than exceptable" motels along the way to rest, arriving here past midnight was a joy !! As we settled in with only suitcases to live out of (movers await with my "life" onboard), the staff went far beyond to accommodate us. Mostly me as my trip resulted into a medical issue. The staff asked out of concern on my progress, inquired if I needed anything to help &amp; to ensure I was ok while husband was at work. That goes beyond their duties. 
 Ladies: Sherrie, Tonya, Rosie &amp; night shift Ms Lynette plus other girls, (who's names escape me) also deserve commendation, were wonderful, too !! They had jobs to do but each day made sure to check on me until I was better. God bless them for their kindness. Layton, also, is very helpful &amp; kind. As for our suite, very clean, all we needed was supplied daily &amp; due to my walking ability limitation, my mail was brought to me, how nice ! The pool is always well kept, common areas kept clean...no "smell" previously mentioned except ONCE, lol, it was someone cooking ! What do you...We drove 1500 miles for my husband's new career opportunity in Fort Worth. This ESA hotel was chosen for 2-month extended stay by the HR Director. HR picked the perfect place for us &amp; our small pet. Though it was a difficult travel of 3 days, only to stop at "less than exceptable" motels along the way to rest, arriving here past midnight was a joy !! As we settled in with only suitcases to live out of (movers await with my "life" onboard), the staff went far beyond to accommodate us. Mostly me as my trip resulted into a medical issue. The staff asked out of concern on my progress, inquired if I needed anything to help &amp; to ensure I was ok while husband was at work. That goes beyond their duties. Ladies: Sherrie, Tonya, Rosie &amp; night shift Ms Lynette plus other girls, (who's names escape me) also deserve commendation, were wonderful, too !! They had jobs to do but each day made sure to check on me until I was better. God bless them for their kindness. Layton, also, is very helpful &amp; kind. As for our suite, very clean, all we needed was supplied daily &amp; due to my walking ability limitation, my mail was brought to me, how nice ! The pool is always well kept, common areas kept clean...no "smell" previously mentioned except ONCE, lol, it was someone cooking ! What do you expect when there are kitchens ? Continental breakfast is good for all, actually has more than other hotels I've visited. When I do leave here, when our new home is ready, I'll be sure to book ALL my visitors HERE. NOTE: only one thing for OWNER: The exercise room could use a few more items and appeal. And more luggage carts would make things smoother for all. I've seen a lot of hard work in the last 30 days by all, I should know....I am from a resort city where I worked in hotel management !! It is not an easy job. Highly recommend this hotel.All-in-All, 5 Stars from me. A great value &amp; Location couldn't be better ! More</t>
+  </si>
+  <si>
+    <t>Jessica D</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109757-r257659792-Extended_Stay_America_Dallas_Las_Colinas_Green_Park_Dr-Irving_Texas.html</t>
@@ -1727,43 +1859,47 @@
       <c r="A2" t="n">
         <v>36166</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>136051</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>2</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1775,56 +1911,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>36166</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>136052</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3" t="n">
         <v>3</v>
@@ -1846,56 +1986,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="X3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>36166</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>136053</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="n">
         <v>2</v>
@@ -1917,56 +2061,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="X4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>36166</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>136054</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="L5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P5" t="n">
         <v>3</v>
@@ -1988,56 +2136,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="X5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Y5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>36166</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>2768</v>
+      </c>
+      <c r="C6" t="s">
+        <v>88</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="J6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="K6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="L6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="M6" t="n">
         <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="O6" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P6" t="n">
         <v>3</v>
@@ -2059,56 +2211,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="X6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Y6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>36166</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>136055</v>
+      </c>
+      <c r="C7" t="s">
+        <v>98</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="J7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="L7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="O7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2124,56 +2280,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="X7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="Y7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>36166</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>136056</v>
+      </c>
+      <c r="C8" t="s">
+        <v>108</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J8" t="s">
+        <v>111</v>
+      </c>
+      <c r="K8" t="s">
+        <v>112</v>
+      </c>
+      <c r="L8" t="s">
+        <v>113</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
         <v>104</v>
       </c>
-      <c r="K8" t="s">
-        <v>105</v>
-      </c>
-      <c r="L8" t="s">
-        <v>106</v>
-      </c>
-      <c r="M8" t="n">
-        <v>5</v>
-      </c>
-      <c r="N8" t="s">
-        <v>98</v>
-      </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="n">
         <v>5</v>
@@ -2195,56 +2355,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="X8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="Y8" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>36166</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>3346</v>
+      </c>
+      <c r="C9" t="s">
+        <v>117</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="J9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="K9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="L9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="O9" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P9" t="n">
         <v>5</v>
@@ -2268,50 +2432,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>36166</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>136057</v>
+      </c>
+      <c r="C10" t="s">
+        <v>124</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="J10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="K10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="L10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="M10" t="n">
         <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="O10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P10" t="n">
         <v>1</v>
@@ -2333,56 +2501,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="X10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="Y10" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>36166</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>136058</v>
+      </c>
+      <c r="C11" t="s">
+        <v>134</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="J11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="K11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="L11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11" t="n">
         <v>5</v>
@@ -2404,56 +2576,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="X11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="Y11" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>36166</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>136059</v>
+      </c>
+      <c r="C12" t="s">
+        <v>143</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="J12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="K12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="L12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="O12" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P12" t="n">
         <v>2</v>
@@ -2475,56 +2651,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="X12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="Y12" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>36166</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>136060</v>
+      </c>
+      <c r="C13" t="s">
+        <v>152</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="J13" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="K13" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="L13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="M13" t="n">
         <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="O13" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P13" t="n">
         <v>1</v>
@@ -2546,56 +2726,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="X13" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="Y13" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>36166</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>136061</v>
+      </c>
+      <c r="C14" t="s">
+        <v>161</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="J14" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="K14" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="L14" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="O14" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2607,56 +2791,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="X14" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="Y14" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>36166</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>136062</v>
+      </c>
+      <c r="C15" t="s">
+        <v>171</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="J15" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="K15" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="L15" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="O15" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P15" t="n">
         <v>4</v>
@@ -2678,56 +2866,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="X15" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="Y15" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>36166</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>136063</v>
+      </c>
+      <c r="C16" t="s">
+        <v>178</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="J16" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="K16" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="L16" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="M16" t="n">
         <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="n">
         <v>3</v>
@@ -2749,56 +2941,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="X16" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="Y16" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>36166</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>33543</v>
+      </c>
+      <c r="C17" t="s">
+        <v>187</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="J17" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="K17" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="L17" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="O17" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2810,56 +3006,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="X17" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="Y17" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>36166</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>2493</v>
+      </c>
+      <c r="C18" t="s">
+        <v>197</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="J18" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K18" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="L18" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="M18" t="n">
         <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="O18" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2871,56 +3071,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="X18" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="Y18" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>36166</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>136064</v>
+      </c>
+      <c r="C19" t="s">
+        <v>206</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="J19" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="K19" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="L19" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -2932,56 +3136,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="X19" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="Y19" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>36166</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>136065</v>
+      </c>
+      <c r="C20" t="s">
+        <v>216</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="J20" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="K20" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="L20" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="O20" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -2997,56 +3205,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="X20" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="Y20" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>36166</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>136066</v>
+      </c>
+      <c r="C21" t="s">
+        <v>225</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="J21" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="K21" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="L21" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="O21" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3058,56 +3270,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="X21" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="Y21" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>36166</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>136067</v>
+      </c>
+      <c r="C22" t="s">
+        <v>234</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="J22" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="K22" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="L22" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="O22" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3119,56 +3335,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="X22" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="Y22" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>36166</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>136068</v>
+      </c>
+      <c r="C23" t="s">
+        <v>244</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="J23" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="K23" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="L23" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="O23" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3184,56 +3404,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="X23" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="Y23" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>36166</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>6944</v>
+      </c>
+      <c r="C24" t="s">
+        <v>252</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="J24" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="K24" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="L24" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="O24" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3253,50 +3477,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>36166</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>136069</v>
+      </c>
+      <c r="C25" t="s">
+        <v>260</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="J25" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="K25" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="L25" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="O25" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3312,56 +3540,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="X25" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="Y25" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>36166</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>36495</v>
+      </c>
+      <c r="C26" t="s">
+        <v>269</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="J26" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="K26" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="L26" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="O26" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="n">
@@ -3377,56 +3609,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="X26" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="Y26" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>36166</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>136070</v>
+      </c>
+      <c r="C27" t="s">
+        <v>278</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="J27" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="K27" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="L27" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="O27" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -3442,56 +3678,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="X27" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="Y27" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>36166</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>18625</v>
+      </c>
+      <c r="C28" t="s">
+        <v>288</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="J28" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="K28" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="L28" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="O28" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
@@ -3511,50 +3751,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>36166</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>136071</v>
+      </c>
+      <c r="C29" t="s">
+        <v>294</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="J29" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="K29" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="L29" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -3574,50 +3818,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>36166</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>136072</v>
+      </c>
+      <c r="C30" t="s">
+        <v>301</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>274</v>
+        <v>303</v>
       </c>
       <c r="J30" t="s">
-        <v>275</v>
+        <v>304</v>
       </c>
       <c r="K30" t="s">
-        <v>276</v>
+        <v>305</v>
       </c>
       <c r="L30" t="s">
-        <v>277</v>
+        <v>306</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>278</v>
+        <v>307</v>
       </c>
       <c r="O30" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -3629,56 +3877,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="X30" t="s">
-        <v>280</v>
+        <v>309</v>
       </c>
       <c r="Y30" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>36166</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>27479</v>
+      </c>
+      <c r="C31" t="s">
+        <v>311</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>282</v>
+        <v>312</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
       <c r="J31" t="s">
-        <v>284</v>
+        <v>314</v>
       </c>
       <c r="K31" t="s">
-        <v>285</v>
+        <v>315</v>
       </c>
       <c r="L31" t="s">
-        <v>286</v>
+        <v>316</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>287</v>
+        <v>317</v>
       </c>
       <c r="O31" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -3690,56 +3942,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>288</v>
+        <v>318</v>
       </c>
       <c r="X31" t="s">
-        <v>289</v>
+        <v>319</v>
       </c>
       <c r="Y31" t="s">
-        <v>290</v>
+        <v>320</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>36166</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>136073</v>
+      </c>
+      <c r="C32" t="s">
+        <v>321</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>291</v>
+        <v>322</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>292</v>
+        <v>323</v>
       </c>
       <c r="J32" t="s">
-        <v>293</v>
+        <v>324</v>
       </c>
       <c r="K32" t="s">
-        <v>294</v>
+        <v>325</v>
       </c>
       <c r="L32" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="M32" t="n">
         <v>2</v>
       </c>
       <c r="N32" t="s">
-        <v>287</v>
+        <v>317</v>
       </c>
       <c r="O32" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P32" t="n">
         <v>2</v>
@@ -3759,35 +4015,39 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>36166</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>136074</v>
+      </c>
+      <c r="C33" t="s">
+        <v>327</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>296</v>
+        <v>328</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>297</v>
+        <v>329</v>
       </c>
       <c r="J33" t="s">
-        <v>298</v>
+        <v>330</v>
       </c>
       <c r="K33" t="s"/>
       <c r="L33" t="s"/>
@@ -3803,51 +4063,52 @@
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s"/>
-      <c r="X33" t="s"/>
-      <c r="Y33" t="s"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>36166</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>136075</v>
+      </c>
+      <c r="C34" t="s">
+        <v>331</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>300</v>
+        <v>333</v>
       </c>
       <c r="J34" t="s">
-        <v>301</v>
+        <v>334</v>
       </c>
       <c r="K34" t="s">
-        <v>302</v>
+        <v>335</v>
       </c>
       <c r="L34" t="s">
-        <v>303</v>
+        <v>336</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="O34" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="n">
@@ -3863,56 +4124,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>305</v>
+        <v>338</v>
       </c>
       <c r="X34" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="Y34" t="s">
-        <v>307</v>
+        <v>340</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>36166</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>18625</v>
+      </c>
+      <c r="C35" t="s">
+        <v>288</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>308</v>
+        <v>341</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>309</v>
+        <v>342</v>
       </c>
       <c r="J35" t="s">
-        <v>310</v>
+        <v>343</v>
       </c>
       <c r="K35" t="s">
-        <v>311</v>
+        <v>344</v>
       </c>
       <c r="L35" t="s">
-        <v>312</v>
+        <v>345</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>313</v>
+        <v>346</v>
       </c>
       <c r="O35" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="P35" t="n">
         <v>4</v>
@@ -3930,56 +4195,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>314</v>
+        <v>347</v>
       </c>
       <c r="X35" t="s">
-        <v>315</v>
+        <v>348</v>
       </c>
       <c r="Y35" t="s">
-        <v>316</v>
+        <v>349</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>36166</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>4365</v>
+      </c>
+      <c r="C36" t="s">
+        <v>350</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>317</v>
+        <v>351</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>318</v>
+        <v>352</v>
       </c>
       <c r="J36" t="s">
-        <v>319</v>
+        <v>353</v>
       </c>
       <c r="K36" t="s">
-        <v>320</v>
+        <v>354</v>
       </c>
       <c r="L36" t="s">
-        <v>321</v>
+        <v>355</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="O36" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="n">
@@ -3997,56 +4266,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>314</v>
+        <v>347</v>
       </c>
       <c r="X36" t="s">
-        <v>315</v>
+        <v>348</v>
       </c>
       <c r="Y36" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>36166</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>136076</v>
+      </c>
+      <c r="C37" t="s">
+        <v>357</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>323</v>
+        <v>358</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>324</v>
+        <v>359</v>
       </c>
       <c r="J37" t="s">
-        <v>325</v>
+        <v>360</v>
       </c>
       <c r="K37" t="s">
-        <v>326</v>
+        <v>361</v>
       </c>
       <c r="L37" t="s">
-        <v>327</v>
+        <v>362</v>
       </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>313</v>
+        <v>346</v>
       </c>
       <c r="O37" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -4060,50 +4333,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>328</v>
+        <v>363</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>36166</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>136077</v>
+      </c>
+      <c r="C38" t="s">
+        <v>364</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>329</v>
+        <v>365</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>330</v>
+        <v>366</v>
       </c>
       <c r="J38" t="s">
-        <v>331</v>
+        <v>367</v>
       </c>
       <c r="K38" t="s">
-        <v>332</v>
+        <v>368</v>
       </c>
       <c r="L38" t="s">
-        <v>333</v>
+        <v>369</v>
       </c>
       <c r="M38" t="n">
         <v>3</v>
       </c>
       <c r="N38" t="s">
-        <v>334</v>
+        <v>370</v>
       </c>
       <c r="O38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="n">
@@ -4123,50 +4400,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>36166</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>108232</v>
+      </c>
+      <c r="C39" t="s">
+        <v>372</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>336</v>
+        <v>373</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>337</v>
+        <v>374</v>
       </c>
       <c r="J39" t="s">
-        <v>338</v>
+        <v>375</v>
       </c>
       <c r="K39" t="s">
-        <v>339</v>
+        <v>376</v>
       </c>
       <c r="L39" t="s">
-        <v>340</v>
+        <v>377</v>
       </c>
       <c r="M39" t="n">
         <v>2</v>
       </c>
       <c r="N39" t="s">
-        <v>341</v>
+        <v>378</v>
       </c>
       <c r="O39" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -4180,50 +4461,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>340</v>
+        <v>377</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>36166</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>136078</v>
+      </c>
+      <c r="C40" t="s">
+        <v>379</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>342</v>
+        <v>380</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>343</v>
+        <v>381</v>
       </c>
       <c r="J40" t="s">
-        <v>344</v>
+        <v>382</v>
       </c>
       <c r="K40" t="s">
-        <v>345</v>
+        <v>383</v>
       </c>
       <c r="L40" t="s">
-        <v>346</v>
+        <v>384</v>
       </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
       <c r="N40" t="s">
-        <v>347</v>
+        <v>385</v>
       </c>
       <c r="O40" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -4237,50 +4522,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>348</v>
+        <v>386</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>36166</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>1034</v>
+      </c>
+      <c r="C41" t="s">
+        <v>387</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>349</v>
+        <v>388</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>350</v>
+        <v>389</v>
       </c>
       <c r="J41" t="s">
-        <v>351</v>
+        <v>390</v>
       </c>
       <c r="K41" t="s">
-        <v>352</v>
+        <v>391</v>
       </c>
       <c r="L41" t="s">
-        <v>353</v>
+        <v>392</v>
       </c>
       <c r="M41" t="n">
         <v>2</v>
       </c>
       <c r="N41" t="s">
-        <v>354</v>
+        <v>393</v>
       </c>
       <c r="O41" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -4292,56 +4581,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>355</v>
+        <v>394</v>
       </c>
       <c r="X41" t="s">
-        <v>356</v>
+        <v>395</v>
       </c>
       <c r="Y41" t="s">
-        <v>357</v>
+        <v>396</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>36166</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>136079</v>
+      </c>
+      <c r="C42" t="s">
+        <v>397</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>358</v>
+        <v>398</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>359</v>
+        <v>399</v>
       </c>
       <c r="J42" t="s">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="K42" t="s">
-        <v>361</v>
+        <v>401</v>
       </c>
       <c r="L42" t="s">
-        <v>362</v>
+        <v>402</v>
       </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
       <c r="N42" t="s">
-        <v>354</v>
+        <v>393</v>
       </c>
       <c r="O42" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -4353,56 +4646,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>355</v>
+        <v>394</v>
       </c>
       <c r="X42" t="s">
-        <v>356</v>
+        <v>395</v>
       </c>
       <c r="Y42" t="s">
-        <v>363</v>
+        <v>403</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>36166</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>136080</v>
+      </c>
+      <c r="C43" t="s">
+        <v>404</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>364</v>
+        <v>405</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>365</v>
+        <v>406</v>
       </c>
       <c r="J43" t="s">
-        <v>366</v>
+        <v>407</v>
       </c>
       <c r="K43" t="s">
-        <v>367</v>
+        <v>408</v>
       </c>
       <c r="L43" t="s">
-        <v>368</v>
+        <v>409</v>
       </c>
       <c r="M43" t="n">
         <v>2</v>
       </c>
       <c r="N43" t="s">
-        <v>369</v>
+        <v>410</v>
       </c>
       <c r="O43" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -4422,50 +4719,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>368</v>
+        <v>409</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>36166</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>67863</v>
+      </c>
+      <c r="C44" t="s">
+        <v>411</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>370</v>
+        <v>412</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>371</v>
+        <v>413</v>
       </c>
       <c r="J44" t="s">
-        <v>372</v>
+        <v>414</v>
       </c>
       <c r="K44" t="s">
-        <v>373</v>
+        <v>415</v>
       </c>
       <c r="L44" t="s">
-        <v>374</v>
+        <v>416</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>375</v>
+        <v>417</v>
       </c>
       <c r="O44" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
@@ -4483,56 +4784,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>376</v>
+        <v>418</v>
       </c>
       <c r="X44" t="s">
-        <v>377</v>
+        <v>419</v>
       </c>
       <c r="Y44" t="s">
-        <v>378</v>
+        <v>420</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>36166</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>136081</v>
+      </c>
+      <c r="C45" t="s">
+        <v>421</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>379</v>
+        <v>422</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>380</v>
+        <v>423</v>
       </c>
       <c r="J45" t="s">
-        <v>381</v>
+        <v>424</v>
       </c>
       <c r="K45" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="L45" t="s">
-        <v>383</v>
+        <v>426</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>384</v>
+        <v>427</v>
       </c>
       <c r="O45" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -4546,50 +4851,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>385</v>
+        <v>428</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>36166</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>27174</v>
+      </c>
+      <c r="C46" t="s">
+        <v>429</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>386</v>
+        <v>430</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>387</v>
+        <v>431</v>
       </c>
       <c r="J46" t="s">
-        <v>388</v>
+        <v>432</v>
       </c>
       <c r="K46" t="s">
-        <v>389</v>
+        <v>433</v>
       </c>
       <c r="L46" t="s">
-        <v>390</v>
+        <v>434</v>
       </c>
       <c r="M46" t="n">
         <v>3</v>
       </c>
       <c r="N46" t="s">
-        <v>391</v>
+        <v>435</v>
       </c>
       <c r="O46" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="P46" t="n">
         <v>5</v>
@@ -4607,13 +4916,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>392</v>
+        <v>436</v>
       </c>
       <c r="X46" t="s">
-        <v>393</v>
+        <v>437</v>
       </c>
       <c r="Y46" t="s">
-        <v>394</v>
+        <v>438</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_220.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_220.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="406">
   <si>
     <t>STR#</t>
   </si>
@@ -150,21 +150,48 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>anita696</t>
-  </si>
-  <si>
-    <t>05/29/2018</t>
+    <t>08/19/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109757-r584433479-Extended_Stay_America_Dallas_Las_Colinas_Green_Park_Dr-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>56032</t>
+  </si>
+  <si>
+    <t>109757</t>
+  </si>
+  <si>
+    <t>584433479</t>
+  </si>
+  <si>
+    <t>06/01/2018</t>
+  </si>
+  <si>
+    <t>Awesome Staff!</t>
+  </si>
+  <si>
+    <t>I was blessed to have found this hotel/location for my extended business stay in the DFW area, and have been residing here since last June.  The staff have always gone out of their way to accommodate me in whatever way they could, and I greatly appreciate that.  I've witnessed the same treatment of other hotel guests, as well.  They have recently added some new staff members, and although they're all great, the young lady that has stood out to me the most is Bria.  She always has a quick, welcoming smile and respectful attitude for the guests.  If you've been disappointed perhaps at the other DFW Extended Stays, I would suggest that you give the Green Park Drive location in Irving a chance! It seems that management has properly trained them well in friendly customer service. :)MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Dallas - Las Colinas - Green Park Dr., responded to this reviewResponded June 1, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 1, 2018</t>
+  </si>
+  <si>
+    <t>I was blessed to have found this hotel/location for my extended business stay in the DFW area, and have been residing here since last June.  The staff have always gone out of their way to accommodate me in whatever way they could, and I greatly appreciate that.  I've witnessed the same treatment of other hotel guests, as well.  They have recently added some new staff members, and although they're all great, the young lady that has stood out to me the most is Bria.  She always has a quick, welcoming smile and respectful attitude for the guests.  If you've been disappointed perhaps at the other DFW Extended Stays, I would suggest that you give the Green Park Drive location in Irving a chance! It seems that management has properly trained them well in friendly customer service. :)More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109757-r581301456-Extended_Stay_America_Dallas_Las_Colinas_Green_Park_Dr-Irving_Texas.html</t>
   </si>
   <si>
-    <t>56032</t>
-  </si>
-  <si>
-    <t>109757</t>
-  </si>
-  <si>
     <t>581301456</t>
   </si>
   <si>
@@ -183,18 +210,15 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
-    <t>00esa, Manager at Extended Stay America - Dallas - Las Colinas - Green Park Dr., responded to this reviewResponded 1 week ago</t>
-  </si>
-  <si>
-    <t>Responded 1 week ago</t>
+    <t>00esa, Manager at Extended Stay America - Dallas - Las Colinas - Green Park Dr., responded to this reviewResponded May 19, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 19, 2018</t>
   </si>
   <si>
     <t>Alesha at the front desk was so accommodating! She gave us our room and unfortunately it was not clean so she apologetically gave us another room. That room also had uncleaned areas! Alesha courteously gave us our money back and apologized once again. I gave this review 2 stars because the customer service was great and the rooms, although dirty, were nice sized.More</t>
   </si>
   <si>
-    <t>7venessam</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109757-r560164358-Extended_Stay_America_Dallas_Las_Colinas_Green_Park_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -222,9 +246,6 @@
     <t>Bad Area, Hotel was separate building from the front desk, Bed was squeaky and hurt my back, Tv did not work, reported it to front desk and did not get it working until the next night.  If you need towels or blankets changed, you have to walk to the front office building to get it.More</t>
   </si>
   <si>
-    <t>nikitap249</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109757-r532771386-Extended_Stay_America_Dallas_Las_Colinas_Green_Park_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -252,9 +273,6 @@
     <t>Too Many to List....complained to corporate = No resolution. Complained at staff = treated to get kicked out.   Fleas in room. RUDE Staff.  No Ethic from management.  Check in took 15 min just for agent to come to front desk from sleep... was told I had no room, yet we paid upfront... after 5 min all the sudden she stated management did something in the system and was one room left for my reservation.More</t>
   </si>
   <si>
-    <t>gauravj372</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109757-r531582624-Extended_Stay_America_Dallas_Las_Colinas_Green_Park_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -270,9 +288,6 @@
     <t>I was checked-in to a room that was not even ready. The bed-sheet were not made, it looked like someone has checked out and the room was not done with for the next. There were bits of paper on the floor, the telephone in the room was also not working. I had to walk back to the reception, which was in a separate building and request for a change of room.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>00esa, Manager at Extended Stay America - Dallas - Las Colinas - Green Park Dr., responded to this reviewResponded October 10, 2017</t>
   </si>
   <si>
@@ -282,9 +297,6 @@
     <t>I was checked-in to a room that was not even ready. The bed-sheet were not made, it looked like someone has checked out and the room was not done with for the next. There were bits of paper on the floor, the telephone in the room was also not working. I had to walk back to the reception, which was in a separate building and request for a change of room.More</t>
   </si>
   <si>
-    <t>James R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109757-r530210124-Extended_Stay_America_Dallas_Las_Colinas_Green_Park_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -312,9 +324,6 @@
     <t>The rooms are dirty apparently only crackheads live here and the staff is rude. They advertise a pool but say it closed October 1st even though it's bright and sunny. I had to switch rooms three times because it was filthy. More</t>
   </si>
   <si>
-    <t>Aroosa N</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109757-r507535094-Extended_Stay_America_Dallas_Las_Colinas_Green_Park_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -330,9 +339,6 @@
     <t>This was by far the worst experience I have ever had at a hotel. I will never recommend this hotel to anyone, and I will leave a review on every website informing others of my experience. I booked a hotel room for 3 nights at Extended Stay through Hotels.com. I received multiple confirmations from the website ensuring me my room was reserved. I arrived on the day of check-in to the hotel and there was only one lady working behind the counter. She told me I did have a reservation under my name but the hotel was "overbooked". I asked how this has happened and she did not respond. She called the other Extended Stay hotel next door and was told there were no more rooms there as well. I was very visibly upset and demanded to know how a hotel can overbook a room when I made a reservation a month ago; she again did not respond. She typed a bunch of things in the computer and eventually went to go "check" to see if there was a room available on the first floor. During that time, I called Hotels.com and was informed me that Hotels.com would find me a new place to stay (mind you, it was 8:30 pm). While I was standing in the Extended Stay lobby, the receptionist came back and told me there was a room available; I asked why she did not offer it...This was by far the worst experience I have ever had at a hotel. I will never recommend this hotel to anyone, and I will leave a review on every website informing others of my experience. I booked a hotel room for 3 nights at Extended Stay through Hotels.com. I received multiple confirmations from the website ensuring me my room was reserved. I arrived on the day of check-in to the hotel and there was only one lady working behind the counter. She told me I did have a reservation under my name but the hotel was "overbooked". I asked how this has happened and she did not respond. She called the other Extended Stay hotel next door and was told there were no more rooms there as well. I was very visibly upset and demanded to know how a hotel can overbook a room when I made a reservation a month ago; she again did not respond. She typed a bunch of things in the computer and eventually went to go "check" to see if there was a room available on the first floor. During that time, I called Hotels.com and was informed me that Hotels.com would find me a new place to stay (mind you, it was 8:30 pm). While I was standing in the Extended Stay lobby, the receptionist came back and told me there was a room available; I asked why she did not offer it before and once again she did not respond. Eventually, Hotels.com called her, spoke to her (right in front me) and she told the lady on the phone, "The computer on my end won't let give her the empty room so can you just find her a new hotel?" I left furious. She informed that she had to inform 8 others the hotel was overbooked.I booked this hotel because I had to take my bar exam the following three days. I don't like writing reviews, nor do I like reading them. I really regret not taking the reviews seriously for this hotel. Book a room at this place at your own risk.MoreShow less</t>
   </si>
   <si>
-    <t>July 2017</t>
-  </si>
-  <si>
     <t>00esa, General Manager at Extended Stay America - Dallas - Las Colinas - Green Park Dr., responded to this reviewResponded August 3, 2017</t>
   </si>
   <si>
@@ -342,9 +348,6 @@
     <t>This was by far the worst experience I have ever had at a hotel. I will never recommend this hotel to anyone, and I will leave a review on every website informing others of my experience. I booked a hotel room for 3 nights at Extended Stay through Hotels.com. I received multiple confirmations from the website ensuring me my room was reserved. I arrived on the day of check-in to the hotel and there was only one lady working behind the counter. She told me I did have a reservation under my name but the hotel was "overbooked". I asked how this has happened and she did not respond. She called the other Extended Stay hotel next door and was told there were no more rooms there as well. I was very visibly upset and demanded to know how a hotel can overbook a room when I made a reservation a month ago; she again did not respond. She typed a bunch of things in the computer and eventually went to go "check" to see if there was a room available on the first floor. During that time, I called Hotels.com and was informed me that Hotels.com would find me a new place to stay (mind you, it was 8:30 pm). While I was standing in the Extended Stay lobby, the receptionist came back and told me there was a room available; I asked why she did not offer it...This was by far the worst experience I have ever had at a hotel. I will never recommend this hotel to anyone, and I will leave a review on every website informing others of my experience. I booked a hotel room for 3 nights at Extended Stay through Hotels.com. I received multiple confirmations from the website ensuring me my room was reserved. I arrived on the day of check-in to the hotel and there was only one lady working behind the counter. She told me I did have a reservation under my name but the hotel was "overbooked". I asked how this has happened and she did not respond. She called the other Extended Stay hotel next door and was told there were no more rooms there as well. I was very visibly upset and demanded to know how a hotel can overbook a room when I made a reservation a month ago; she again did not respond. She typed a bunch of things in the computer and eventually went to go "check" to see if there was a room available on the first floor. During that time, I called Hotels.com and was informed me that Hotels.com would find me a new place to stay (mind you, it was 8:30 pm). While I was standing in the Extended Stay lobby, the receptionist came back and told me there was a room available; I asked why she did not offer it before and once again she did not respond. Eventually, Hotels.com called her, spoke to her (right in front me) and she told the lady on the phone, "The computer on my end won't let give her the empty room so can you just find her a new hotel?" I left furious. She informed that she had to inform 8 others the hotel was overbooked.I booked this hotel because I had to take my bar exam the following three days. I don't like writing reviews, nor do I like reading them. I really regret not taking the reviews seriously for this hotel. Book a room at this place at your own risk.More</t>
   </si>
   <si>
-    <t>529nirits</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109757-r506365166-Extended_Stay_America_Dallas_Las_Colinas_Green_Park_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -369,9 +372,6 @@
     <t>We was in the manager suite (only 1 room like this in the hotel) and it was huge room, it is very clean. quiet area. very nice staff. there is safe feeling in the hotel, and quality guests. great place.More</t>
   </si>
   <si>
-    <t>John H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109757-r544350769-Extended_Stay_America_Dallas_Las_Colinas_Green_Park_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -390,9 +390,6 @@
     <t>December 2017</t>
   </si>
   <si>
-    <t>ashokkumas</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109757-r497446489-Extended_Stay_America_Dallas_Las_Colinas_Green_Park_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -420,9 +417,6 @@
     <t>Not recommended. There is no big stroller at front desk. When i asked for it, they said it might be somewhere in the hotel and not their duty to provide to me. Later, there was a maintenance issues,which wasn't handled during my complete stay. Very very poor breakfastMore</t>
   </si>
   <si>
-    <t>jaynem80</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109757-r495537356-Extended_Stay_America_Dallas_Las_Colinas_Green_Park_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -447,9 +441,6 @@
     <t>This hotel is easily accessible to freeways, shopping areas, and not too far from downtown Dallas (but far enough away to relax!).  It is surrounded by green belts and beautiful open space to walk and to breathe.  The manager and staff are very friendly and accommodating, and I highly recommend this facility.More</t>
   </si>
   <si>
-    <t>17micheley</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109757-r492911805-Extended_Stay_America_Dallas_Las_Colinas_Green_Park_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -474,9 +465,6 @@
     <t>I had a reservation to stay at this establishment for five days. After I checked in, I went to my room, only to find out that it was already occupied.I returned to the front desk and informed the clerk that the room was taken. She was very courteous and gave us another room. The next room I received was dirty and there mice traps on the floor against the walls of the room. I again returned to the front desk to inform the staff of the condition of which I found the room. I asked to be placed into another building because I refused to sleep in a building with rodents. She again obliged and gave us a room that was located in the main building. This room again was not cleaned well and had a strange smell as we walked in. This was to be a 5 day stay which turned out to be a 1 night stay instead.More</t>
   </si>
   <si>
-    <t>rickymJ1890CN</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109757-r492481829-Extended_Stay_America_Dallas_Las_Colinas_Green_Park_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -501,9 +489,6 @@
     <t>Just poor communication that did not get across to anyone unless you had to sleep in my room knowing I have to study, can't watch tv comfortablely an can't sleep with the ac fan motor making so much noiseMore</t>
   </si>
   <si>
-    <t>forfun2017</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109757-r491922585-Extended_Stay_America_Dallas_Las_Colinas_Green_Park_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -531,9 +516,6 @@
     <t>I needed the room for a few hrs only, to just sleep as I was passing through. When I made the reservation(with a third party) I did it wrong so they could not don't it. I spoke to Tonya and she took care of everything, she called the third party company for me and figure it out i was really grateful for that.And she was extremely nice as I needed a late check out. She was amazing, people like her are usually not appreciated enough in the company she deserve a hard pat in the backMore</t>
   </si>
   <si>
-    <t>Jefferychaney</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109757-r491742619-Extended_Stay_America_Dallas_Las_Colinas_Green_Park_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -552,9 +534,6 @@
     <t>Very nice I enjoyed everything there the room was very comfortable staff members really nice and being a delay on a really nice comfortable bed great, I'll be more than happy to stay here again and again very nice location to everything is close by.More</t>
   </si>
   <si>
-    <t>tiffanylW7733GV</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109757-r490854226-Extended_Stay_America_Dallas_Las_Colinas_Green_Park_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -579,9 +558,6 @@
     <t>Need better cleaning staff and also staff that tell guest information about the Hotel such as the location of the swim pool, shuttle, laundry room. Also the hotel need invest mold and mildew cleaner. Overall the hotel is average.More</t>
   </si>
   <si>
-    <t>Amber R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109757-r489401567-Extended_Stay_America_Dallas_Las_Colinas_Green_Park_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -609,9 +585,6 @@
     <t>My stay here was the best. I've had absolutely no complaints! If you happen to stay when Tonya is working, you are in luck! She makes you feel right at home; assisting in anything you might possibly need! Definitely recommend this place to others!! More</t>
   </si>
   <si>
-    <t>Ted M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109757-r485481009-Extended_Stay_America_Dallas_Las_Colinas_Green_Park_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -636,9 +609,6 @@
     <t>I have been staying on and off for 4 years the place is not so great but having Tanya here makes my stay easier she is very attentive to my needs  and her custimer service us excellent.I had stayed in the other building and the manager is very rude the I wont stay at thst one but between Tanya and Kenneth they make it worth itMore</t>
   </si>
   <si>
-    <t>bcakes82</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109757-r484993477-Extended_Stay_America_Dallas_Las_Colinas_Green_Park_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -666,9 +636,6 @@
     <t>I namely like Tonya on the 1st shift she is a amazing. I am currently at the meadow creek location mext door to green park and i only like it for the full stove. And there are a couple of friendly people at meadow creek but nothing like the staff at green parkMore</t>
   </si>
   <si>
-    <t>The_4Til</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109757-r475351076-Extended_Stay_America_Dallas_Las_Colinas_Green_Park_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -693,9 +660,6 @@
     <t>This is our second long term stay and we have been very satisfied both time. Tonya and the front desk staff are awesome. They have treated us with kindness and the utmost professionalism. Housekeeping and maintenance keep the rooms and property well maintained and clean They also accept pets.  Overall a very positive experience.More</t>
   </si>
   <si>
-    <t>leahalanis</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109757-r463819780-Extended_Stay_America_Dallas_Las_Colinas_Green_Park_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -720,9 +684,6 @@
     <t>I have been staying here since December and can't say enough good things about it! Everyone here goes out of their way to be helpful. Tonya, Jodi, Lucia, everyone here have been so helpful and accommodating. I'm a night shift worker, and it's always very quiet and comfortable. The rooms are outstanding, nicer than most apartments, and much more reasonably priced than most places in the area. This really does feel more like a home than a hotel!More</t>
   </si>
   <si>
-    <t>Pernellpaid</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109757-r457478048-Extended_Stay_America_Dallas_Las_Colinas_Green_Park_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -750,9 +711,6 @@
     <t>Tonya, was great and professional at the front desk. She made my stay comfortable and pleasant. Most positive I will be returning! Recommending this location to all my friends and family. Strongly recommend this app to all my friends and family.More</t>
   </si>
   <si>
-    <t>shaun n</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109757-r456556158-Extended_Stay_America_Dallas_Las_Colinas_Green_Park_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -774,9 +732,6 @@
     <t>Rooms are nice and spacious. Cleanings once a week. Lucia athe the front desk is amazing. Anytime I had a complaint or issue she took care of it quickly! Stayed here for 6 months with only a few issues. I would definitely stay here again.More</t>
   </si>
   <si>
-    <t>Donald G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109757-r452783973-Extended_Stay_America_Dallas_Las_Colinas_Green_Park_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -798,9 +753,6 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
-    <t>wstevend</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109757-r451974457-Extended_Stay_America_Dallas_Las_Colinas_Green_Park_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -825,9 +777,6 @@
     <t>This is the nicest Extended Stay America i've been in!Lucia was a perfect 10 and she looked after me when i first arrived and took the time to make sure I had everything i needed! When I come to Dallas again, i'll be staying here!More</t>
   </si>
   <si>
-    <t>Elizabeth D</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109757-r451254776-Extended_Stay_America_Dallas_Las_Colinas_Green_Park_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -852,9 +801,6 @@
     <t>I love staying here while in Irving, Texas for business. The rooms are clean and updated, with great amenities. The staff is extremely cheery, and helpful. Tonya at the front desk is always helpful whenever I have any questions or need something like towels, tp, mail, ect. She goes above and beyond to make sure I have what I need. It's so great to see a friendly, kind face here everyday. It definitely makes this place feel more like home for the time being.More</t>
   </si>
   <si>
-    <t>steve1272</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109757-r451072923-Extended_Stay_America_Dallas_Las_Colinas_Green_Park_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -882,9 +828,6 @@
     <t>I was a guest of the Extended Stay on Green Park Dr for 18months recently.The staff is professional,caring and always considerate The location is ideal and the corporate rate was attractiveWould recommend this place to all who are looking for valueconvenience and a staff that will address any issues that ariseIf back in the area, I will definetly be at the Extended StayIrving &amp; Los ColinasMore</t>
   </si>
   <si>
-    <t>Don W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109757-r450279929-Extended_Stay_America_Dallas_Las_Colinas_Green_Park_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -900,9 +843,6 @@
     <t>I've stayed here numerous times and always find the room clean, very functional, and a good value. The kichenette is great with a full size refrigerator. The staff is always responsive and friendly. I highly recommend the Green Park location.They've also recently improved the WiFi.</t>
   </si>
   <si>
-    <t>Renata C. F</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109757-r448644620-Extended_Stay_America_Dallas_Las_Colinas_Green_Park_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -921,9 +861,6 @@
     <t>My stay at this hotel was horrendous. The staff was brand new and had no clue how to due their job. We know because they shared this fact with us. One even went as far to tell us that he was disabled and should not be doing this job. The television did not change channel no matter how much we tried to fix it. The room had huge water bugs and the smell was odd. Trying to get an extra pillow was like pulling teeth. We were told the first night that laundry was being done and none was available. The next day, my husband had to threaten the staff members job if he did not get some extra pillows, it should not have had to go that far. The breakfast was not a full one as advertised, the pool was murky and unappealing. The overall state of the hotel was poor. Our stay was far from peaceful. I would not recommend this hotel at all. Pay more and get more. This hotel is more like a one star.More</t>
   </si>
   <si>
-    <t>Kapil K</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109757-r447951934-Extended_Stay_America_Dallas_Las_Colinas_Green_Park_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -951,9 +888,6 @@
     <t>Good experience n good ambience at front desk. Rooms are neat n clean.Lucia is at front desk n very kind to everybody. She listens everybody and helps everybody who comes at front desk.Corridor is also very neat and laundry room is available for guest that is best part of hotel but only difference is that no one hotel near by takes charge for laundry machines but extended stay takes charges for laundryMore</t>
   </si>
   <si>
-    <t>Heather F</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109757-r445156604-Extended_Stay_America_Dallas_Las_Colinas_Green_Park_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -981,9 +915,6 @@
     <t>Tonya who works at the front desk checked me in today and she was so accommodating and friendly and helpful! I love this place now because of her welcoming and welcoming attitude. She found me a room on the floor I wanted and the building I preferred.Thank you Tonya.More</t>
   </si>
   <si>
-    <t>Mufflon J</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109757-r444691127-Extended_Stay_America_Dallas_Las_Colinas_Green_Park_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -999,19 +930,22 @@
     <t>Weekly different Roomrates,Weekly Roomservice is only changing Towels(when he comes)unfriendly Personal on the Frontdesk(only Miss Lucia try to help you and is friendly)The Standard between this 3 Houses is to big.</t>
   </si>
   <si>
-    <t>texsafaris</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109757-r444371914-Extended_Stay_America_Dallas_Las_Colinas_Green_Park_Dr-Irving_Texas.html</t>
   </si>
   <si>
     <t>444371914</t>
   </si>
   <si>
-    <t>December 14, 2016</t>
-  </si>
-  <si>
-    <t>DSarkies</t>
+    <t>12/14/2016</t>
+  </si>
+  <si>
+    <t>Great place to stay short or long term</t>
+  </si>
+  <si>
+    <t>I always come to Extended Stay in Las Colinas when working in Irving. Lucia at the front desk is always helpful when I need assistance as well. Room s are clean and updated, with free wifi, available laundromat, and grab n go breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t>I always come to Extended Stay in Las Colinas when working in Irving. Lucia at the front desk is always helpful when I need assistance as well. Room s are clean and updated, with free wifi, available laundromat, and grab n go breakfast.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109757-r400521011-Extended_Stay_America_Dallas_Las_Colinas_Green_Park_Dr-Irving_Texas.html</t>
@@ -1068,9 +1002,6 @@
     <t>I've stayed at this property several times over the last few years and really like it. The staff is great, the rooms well equipped, and a very convenient location. Housekeeping is only weekly, but that is enough for me and they do a great job. Free coffee, fruit, and granola bars in the morning are a nice touch.My only complaint is the wi-fi system, which is 1990 modem slow. I understand they are working on it though.More</t>
   </si>
   <si>
-    <t>Dan H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109757-r391679052-Extended_Stay_America_Dallas_Las_Colinas_Green_Park_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -1089,9 +1020,6 @@
     <t>I would highly recommend staying at the Extended Stay America in Las Colinas. The rooms were very clean and the service was always friendly and accommodating. The pool is large enough for many families to enjoy.  They have a gas grill for guests to use, which I did, and a great selection for breakfast snacks in the mornings. The coffee is always ready for you no later than 6 AM every morning. The room I was in had a really nice view of the sunrise over the trees.More</t>
   </si>
   <si>
-    <t>Brandie C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109757-r390846028-Extended_Stay_America_Dallas_Las_Colinas_Green_Park_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -1110,9 +1038,6 @@
     <t>This hotel had horrible service. They only clean the room once a week after you had been there a week. So during a 13 day trip, my room was serviced once. If you wanted clean towels or sheets, you had to bring them to the front desk yourself. When we asked for additional pillows we were told we didn't need that many and they would give us 1. You have to request hangers. The breakfast consisited of single serve breakfast bars, coffee, browning apples, tea, and oatmeal.The rooms were filthy. I constantly found long black hairs that were not mine in my bed, sink, and in every towel I received. There was a hole in my freezer, glass by the pool, odd stains on the furniture, and an elavator that made wierd noises and would stall. There are several people who live in this hotel and seem to be content but I won't be staying there again. More</t>
   </si>
   <si>
-    <t>moorean6</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109757-r371853176-Extended_Stay_America_Dallas_Las_Colinas_Green_Park_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -1134,9 +1059,6 @@
     <t>We made reservations for the Extended Stay America next door thru priceline, but when we arrived, they told us they were overbooked so we were bumped to this hotel. We were in the 2nd building, first floor. Front desk clerk was friendly and informative. Room was clean and spacious, two double beds and a sleeper sofa. Main issues in our room were- toilet kept running after flushing, one window was cracked all the way across the width, and we had trouble getting the room to cool down because the air blew right up and into the curtains (with the cracked window)- we had to weigh the curtains down with boots to get the air flowing into the room. The air conditioner kept turning off and on during the night, and as light sleepers, this was annoying. When it turned off, we could hear some noise from outside or other rooms. Breakfast was in the lobby in the first building, so that was inconvenient for us, since we had young kids with us, but it wasn't much of a breakfast anyway. Only options were instant oatmeal, peanut butter granola bars, and muffins. Appliances in the room worked, cabinets had new paint and there was a little odor remaining from the paint but not overwhelming. Our car got keyed in the parking lot, but that's no fault of the hotel's.More</t>
   </si>
   <si>
-    <t>Josephjones1911</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109757-r371021335-Extended_Stay_America_Dallas_Las_Colinas_Green_Park_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -1155,9 +1077,6 @@
     <t>March 2016</t>
   </si>
   <si>
-    <t>joncat0930</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109757-r363179792-Extended_Stay_America_Dallas_Las_Colinas_Green_Park_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -1177,9 +1096,6 @@
   </si>
   <si>
     <t>I will never stay at an extended stay ever again. Reserved and got a conformation on 2 rooms. Got there  30 minutes later and was told only one room was available because other one was dirty. So I slept on plastic cover on fold out couch with no pillow or cover. So next day I was sent to another extended stay, totally away from my guys working with me. I travel probably 40 weeks of year and this is ABSOLUTELY the worst hotel ever. They don't clean your rooms till the 8th day,so when I asked she told me you can get your room cleaned for $5. Who in the h&amp;$@ wants a room cleaned every8 days, no towels, or clean sheets. The linen is as cheap as you can get. People put their trash in the hallway so when you leave your room all you smell is garbage. They have ashtrays just all entrances with signs saying no smoking within 100 ft. of entrance, I mean really. Went to checkout and no luggage cart , looked on all floors and couldn't find one. Ac wouldn't cool room and sounded louder than the damn train that runs all day and night. Told both front desk I was checking out tomorrow, well went there the next day for receipt and no receipt, lady at one told me this happens every morning at this time so I  was late for work. NEVER...I will never stay at an extended stay ever again. Reserved and got a conformation on 2 rooms. Got there  30 minutes later and was told only one room was available because other one was dirty. So I slept on plastic cover on fold out couch with no pillow or cover. So next day I was sent to another extended stay, totally away from my guys working with me. I travel probably 40 weeks of year and this is ABSOLUTELY the worst hotel ever. They don't clean your rooms till the 8th day,so when I asked she told me you can get your room cleaned for $5. Who in the h&amp;$@ wants a room cleaned every8 days, no towels, or clean sheets. The linen is as cheap as you can get. People put their trash in the hallway so when you leave your room all you smell is garbage. They have ashtrays just all entrances with signs saying no smoking within 100 ft. of entrance, I mean really. Went to checkout and no luggage cart , looked on all floors and couldn't find one. Ac wouldn't cool room and sounded louder than the damn train that runs all day and night. Told both front desk I was checking out tomorrow, well went there the next day for receipt and no receipt, lady at one told me this happens every morning at this time so I  was late for work. NEVER EVER AGAIN. More</t>
-  </si>
-  <si>
-    <t>wayneknight1980</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109757-r342486039-Extended_Stay_America_Dallas_Las_Colinas_Green_Park_Dr-Irving_Texas.html</t>
@@ -1217,9 +1133,6 @@
 In the morning I discovered where most hotel room doors shut...There are two Extended Stay America's right next to each other. Extended Stay and Extended Stay Deluxe. It would be nice if they added Deluxe to the sign of the Deluxe one. Once I got the right place it was about 11pm. The front desk clerk mentioned that I barely made it before she left. I'm assuming they shut down the lobby at night and you have to call someone in if you have a problem. My room was in the second building on the 3rd floor near the end of the hall. You would struggle to find a room farther from the lobby. The main light in the room doesn't work. I had to feel around in the dark to find a lamp to turn on. There are three light switches that do nothing. One by the door. One in the kitchen. And one at the foot of the bed. I assume one is supposed to turn that main light on. I'm not sure what the purpose of the others is. The chairs have digusting looking stains on them. So I had to put a towel on the chair before I could sit in it. I like the room cool so I had to turn the AC on. It didn't stay on long because It's cold outside but the AC sounded like a lawnmower when it was on. In the morning I discovered where most hotel room doors shut completely behind you, this door only halfway shuts and anyone could've come in my room while I was asleep. Everytime you enter/leave you have to pull/push the door shut all the way.The shower worked good but there was mildew between some of the tiles and long black hairs on the shower wall.The toilet seat is really loose. Someone could fall off of it.For breakfast they had 4-5 different flavors of instant oatmeal and both medium and dark roast coffee in the lobby. Checkout was quick and easy. The guy working the front desk was friendly. Due to housekeeping and maintenance issues I'd say this is a 2-star hotel.More</t>
   </si>
   <si>
-    <t>athenascott</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109757-r342164668-Extended_Stay_America_Dallas_Las_Colinas_Green_Park_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -1238,9 +1151,6 @@
     <t>My room was in the 2nd building by the door going outside. All night there were people yelling and slamming doors, the hallway smelled horrible and the room was not clean. When I called the front desk about the noise I was told there was nothing they could do, it was 1am! The staff was not friendly at all and refused to give clean towels when I asked! I will never stay in an Extended Stay America again!More</t>
   </si>
   <si>
-    <t>Diam0nd00</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109757-r340183584-Extended_Stay_America_Dallas_Las_Colinas_Green_Park_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -1259,9 +1169,6 @@
     <t>November 2015</t>
   </si>
   <si>
-    <t>C D</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109757-r312688540-Extended_Stay_America_Dallas_Las_Colinas_Green_Park_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -1287,9 +1194,6 @@
   </si>
   <si>
     <t>I have no complaints; the bed is comfortable; had a slight issue with the bathroom and it was taken care of within hours; ladies at the front desk including the asst mgr are all great and accommodating.  As with most things in life, things can be a hit or a miss.  ESA-Green Park has been a hit for me!!!  I have been here for work -away from home--for 80 days and countingMore</t>
-  </si>
-  <si>
-    <t>andea m</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109757-r303830500-Extended_Stay_America_Dallas_Las_Colinas_Green_Park_Dr-Irving_Texas.html</t>
@@ -1313,9 +1217,6 @@
   <si>
     <t>We drove 1500 miles for my husband's new career opportunity in Fort Worth. This ESA hotel was chosen for 2-month extended stay by the HR Director. HR picked the perfect place for us &amp; our small pet. Though it was a difficult travel of 3 days, only to stop at "less than exceptable" motels along the way to rest, arriving here past midnight was a joy !! As we settled in with only suitcases to live out of (movers await with my "life" onboard), the staff went far beyond to accommodate us. Mostly me as my trip resulted into a medical issue. The staff asked out of concern on my progress, inquired if I needed anything to help &amp; to ensure I was ok while husband was at work. That goes beyond their duties. 
 Ladies: Sherrie, Tonya, Rosie &amp; night shift Ms Lynette plus other girls, (who's names escape me) also deserve commendation, were wonderful, too !! They had jobs to do but each day made sure to check on me until I was better. God bless them for their kindness. Layton, also, is very helpful &amp; kind. As for our suite, very clean, all we needed was supplied daily &amp; due to my walking ability limitation, my mail was brought to me, how nice ! The pool is always well kept, common areas kept clean...no "smell" previously mentioned except ONCE, lol, it was someone cooking ! What do you...We drove 1500 miles for my husband's new career opportunity in Fort Worth. This ESA hotel was chosen for 2-month extended stay by the HR Director. HR picked the perfect place for us &amp; our small pet. Though it was a difficult travel of 3 days, only to stop at "less than exceptable" motels along the way to rest, arriving here past midnight was a joy !! As we settled in with only suitcases to live out of (movers await with my "life" onboard), the staff went far beyond to accommodate us. Mostly me as my trip resulted into a medical issue. The staff asked out of concern on my progress, inquired if I needed anything to help &amp; to ensure I was ok while husband was at work. That goes beyond their duties. Ladies: Sherrie, Tonya, Rosie &amp; night shift Ms Lynette plus other girls, (who's names escape me) also deserve commendation, were wonderful, too !! They had jobs to do but each day made sure to check on me until I was better. God bless them for their kindness. Layton, also, is very helpful &amp; kind. As for our suite, very clean, all we needed was supplied daily &amp; due to my walking ability limitation, my mail was brought to me, how nice ! The pool is always well kept, common areas kept clean...no "smell" previously mentioned except ONCE, lol, it was someone cooking ! What do you expect when there are kitchens ? Continental breakfast is good for all, actually has more than other hotels I've visited. When I do leave here, when our new home is ready, I'll be sure to book ALL my visitors HERE. NOTE: only one thing for OWNER: The exercise room could use a few more items and appeal. And more luggage carts would make things smoother for all. I've seen a lot of hard work in the last 30 days by all, I should know....I am from a resort city where I worked in hotel management !! It is not an easy job. Highly recommend this hotel.All-in-All, 5 Stars from me. A great value &amp; Location couldn't be better ! More</t>
-  </si>
-  <si>
-    <t>Jessica D</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109757-r257659792-Extended_Stay_America_Dallas_Las_Colinas_Green_Park_Dr-Irving_Texas.html</t>
@@ -1859,568 +1760,530 @@
       <c r="A2" t="n">
         <v>36166</v>
       </c>
-      <c r="B2" t="n">
-        <v>136051</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>46</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>47</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" t="n">
-        <v>2</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="O2" t="s">
-        <v>54</v>
-      </c>
-      <c r="P2" t="s"/>
+      <c r="P2" t="n">
+        <v>4</v>
+      </c>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
         <v>55</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>56</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>36166</v>
       </c>
-      <c r="B3" t="n">
-        <v>136052</v>
-      </c>
-      <c r="C3" t="s">
-        <v>58</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
         <v>59</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>60</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>61</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
         <v>62</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>63</v>
       </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O3" t="s">
-        <v>54</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1</v>
-      </c>
-      <c r="R3" t="n">
-        <v>3</v>
-      </c>
-      <c r="S3" t="n">
-        <v>3</v>
-      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>3</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" t="s">
         <v>65</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>66</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>36166</v>
       </c>
-      <c r="B4" t="n">
-        <v>136053</v>
-      </c>
-      <c r="C4" t="s">
-        <v>68</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
         <v>69</v>
       </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>70</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>71</v>
-      </c>
-      <c r="K4" t="s">
-        <v>72</v>
-      </c>
-      <c r="L4" t="s">
-        <v>73</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="O4" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="P4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" t="n">
         <v>3</v>
       </c>
-      <c r="R4" t="n">
-        <v>5</v>
-      </c>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
+        <v>73</v>
+      </c>
+      <c r="X4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y4" t="s">
         <v>75</v>
-      </c>
-      <c r="X4" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>36166</v>
       </c>
-      <c r="B5" t="n">
-        <v>136054</v>
-      </c>
-      <c r="C5" t="s">
-        <v>78</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" t="s">
         <v>79</v>
       </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="L5" t="s">
         <v>80</v>
       </c>
-      <c r="J5" t="s">
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
         <v>81</v>
       </c>
-      <c r="K5" t="s">
-        <v>82</v>
-      </c>
-      <c r="L5" t="s">
-        <v>83</v>
-      </c>
-      <c r="M5" t="n">
-        <v>3</v>
-      </c>
-      <c r="N5" t="s">
-        <v>74</v>
-      </c>
       <c r="O5" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="P5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q5" t="n">
         <v>3</v>
       </c>
       <c r="R5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="X5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="Y5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>36166</v>
       </c>
-      <c r="B6" t="n">
-        <v>2768</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" t="s">
         <v>88</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="L6" t="s">
         <v>89</v>
       </c>
-      <c r="G6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" t="s">
-        <v>90</v>
-      </c>
-      <c r="J6" t="s">
-        <v>91</v>
-      </c>
-      <c r="K6" t="s">
-        <v>92</v>
-      </c>
-      <c r="L6" t="s">
-        <v>93</v>
-      </c>
       <c r="M6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="O6" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="P6" t="n">
         <v>3</v>
       </c>
       <c r="Q6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="n">
         <v>3</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1</v>
       </c>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="X6" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="Y6" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>36166</v>
       </c>
-      <c r="B7" t="n">
-        <v>136055</v>
-      </c>
-      <c r="C7" t="s">
-        <v>98</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
         <v>47</v>
       </c>
-      <c r="H7" t="s">
-        <v>48</v>
-      </c>
       <c r="I7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="J7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="K7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="L7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="O7" t="s">
-        <v>84</v>
-      </c>
-      <c r="P7" t="s"/>
-      <c r="Q7" t="s"/>
-      <c r="R7" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" t="n">
+        <v>3</v>
+      </c>
       <c r="S7" t="n">
         <v>1</v>
       </c>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="X7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="Y7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>36166</v>
       </c>
-      <c r="B8" t="n">
-        <v>136056</v>
-      </c>
-      <c r="C8" t="s">
-        <v>108</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
         <v>47</v>
       </c>
-      <c r="H8" t="s">
-        <v>48</v>
-      </c>
       <c r="I8" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="J8" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="K8" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="L8" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="M8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="O8" t="s">
-        <v>54</v>
-      </c>
-      <c r="P8" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>5</v>
-      </c>
-      <c r="R8" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
       <c r="S8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="X8" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="Y8" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>36166</v>
       </c>
-      <c r="B9" t="n">
-        <v>3346</v>
-      </c>
-      <c r="C9" t="s">
-        <v>117</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
         <v>47</v>
       </c>
-      <c r="H9" t="s">
-        <v>48</v>
-      </c>
       <c r="I9" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="J9" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="K9" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="L9" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="M9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="O9" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="P9" t="n">
         <v>5</v>
       </c>
       <c r="Q9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R9" t="n">
         <v>5</v>
       </c>
       <c r="S9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
@@ -2429,294 +2292,278 @@
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s"/>
-      <c r="X9" t="s"/>
+      <c r="W9" t="s">
+        <v>115</v>
+      </c>
+      <c r="X9" t="s">
+        <v>116</v>
+      </c>
       <c r="Y9" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>36166</v>
       </c>
-      <c r="B10" t="n">
-        <v>136057</v>
-      </c>
-      <c r="C10" t="s">
-        <v>124</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
         <v>47</v>
       </c>
-      <c r="H10" t="s">
-        <v>48</v>
-      </c>
       <c r="I10" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="J10" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="K10" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="L10" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="M10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="O10" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="P10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s">
-        <v>131</v>
-      </c>
-      <c r="X10" t="s">
-        <v>132</v>
-      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>36166</v>
       </c>
-      <c r="B11" t="n">
-        <v>136058</v>
-      </c>
-      <c r="C11" t="s">
-        <v>134</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
         <v>47</v>
       </c>
-      <c r="H11" t="s">
-        <v>48</v>
-      </c>
       <c r="I11" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="J11" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="K11" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="L11" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="X11" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="Y11" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>36166</v>
       </c>
-      <c r="B12" t="n">
-        <v>136059</v>
-      </c>
-      <c r="C12" t="s">
-        <v>143</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
         <v>47</v>
       </c>
-      <c r="H12" t="s">
-        <v>48</v>
-      </c>
       <c r="I12" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="J12" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="K12" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="L12" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O12" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="P12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="X12" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="Y12" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>36166</v>
       </c>
-      <c r="B13" t="n">
-        <v>136060</v>
-      </c>
-      <c r="C13" t="s">
-        <v>152</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
         <v>47</v>
       </c>
-      <c r="H13" t="s">
-        <v>48</v>
-      </c>
       <c r="I13" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="J13" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="K13" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="L13" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O13" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="P13" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q13" t="n">
         <v>1</v>
       </c>
-      <c r="Q13" t="n">
-        <v>3</v>
-      </c>
       <c r="R13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
@@ -2726,340 +2573,330 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="X13" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="Y13" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>36166</v>
       </c>
-      <c r="B14" t="n">
-        <v>136061</v>
-      </c>
-      <c r="C14" t="s">
-        <v>161</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
         <v>47</v>
       </c>
-      <c r="H14" t="s">
-        <v>48</v>
-      </c>
       <c r="I14" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="J14" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="K14" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="L14" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="M14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O14" t="s">
-        <v>167</v>
-      </c>
-      <c r="P14" t="s"/>
-      <c r="Q14" t="s"/>
-      <c r="R14" t="s"/>
-      <c r="S14" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3</v>
+      </c>
       <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
+      <c r="U14" t="n">
+        <v>3</v>
+      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="X14" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="Y14" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>36166</v>
       </c>
-      <c r="B15" t="n">
-        <v>136062</v>
-      </c>
-      <c r="C15" t="s">
-        <v>171</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
         <v>47</v>
       </c>
-      <c r="H15" t="s">
-        <v>48</v>
-      </c>
       <c r="I15" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="J15" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="K15" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="L15" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="M15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O15" t="s">
-        <v>84</v>
-      </c>
-      <c r="P15" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>4</v>
-      </c>
-      <c r="R15" t="n">
-        <v>5</v>
-      </c>
-      <c r="S15" t="n">
-        <v>4</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>4</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="X15" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="Y15" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>36166</v>
       </c>
-      <c r="B16" t="n">
-        <v>136063</v>
-      </c>
-      <c r="C16" t="s">
-        <v>178</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
         <v>47</v>
       </c>
-      <c r="H16" t="s">
-        <v>48</v>
-      </c>
       <c r="I16" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="J16" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="K16" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="L16" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="M16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="X16" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="Y16" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>36166</v>
       </c>
-      <c r="B17" t="n">
-        <v>33543</v>
-      </c>
-      <c r="C17" t="s">
-        <v>187</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
         <v>47</v>
       </c>
-      <c r="H17" t="s">
-        <v>48</v>
-      </c>
       <c r="I17" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="J17" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="K17" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="L17" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>193</v>
+        <v>129</v>
       </c>
       <c r="O17" t="s">
-        <v>167</v>
-      </c>
-      <c r="P17" t="s"/>
-      <c r="Q17" t="s"/>
-      <c r="R17" t="s"/>
-      <c r="S17" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2</v>
+      </c>
       <c r="T17" t="s"/>
-      <c r="U17" t="s"/>
+      <c r="U17" t="n">
+        <v>3</v>
+      </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="X17" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="Y17" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>36166</v>
       </c>
-      <c r="B18" t="n">
-        <v>2493</v>
-      </c>
-      <c r="C18" t="s">
-        <v>197</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
         <v>47</v>
       </c>
-      <c r="H18" t="s">
-        <v>48</v>
-      </c>
       <c r="I18" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="J18" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="K18" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="L18" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="M18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="O18" t="s">
-        <v>84</v>
+        <v>162</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3071,60 +2908,56 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="X18" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="Y18" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>36166</v>
       </c>
-      <c r="B19" t="n">
-        <v>136064</v>
-      </c>
-      <c r="C19" t="s">
-        <v>206</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
         <v>47</v>
       </c>
-      <c r="H19" t="s">
-        <v>48</v>
-      </c>
       <c r="I19" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="J19" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="K19" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="L19" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N19" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
       <c r="O19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3136,194 +2969,182 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="X19" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="Y19" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>36166</v>
       </c>
-      <c r="B20" t="n">
-        <v>136065</v>
-      </c>
-      <c r="C20" t="s">
-        <v>216</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
         <v>47</v>
       </c>
-      <c r="H20" t="s">
-        <v>48</v>
-      </c>
       <c r="I20" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="J20" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="K20" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="L20" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="O20" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
-      <c r="R20" t="n">
-        <v>5</v>
-      </c>
+      <c r="R20" t="s"/>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>5</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="X20" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="Y20" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>36166</v>
       </c>
-      <c r="B21" t="n">
-        <v>136066</v>
-      </c>
-      <c r="C21" t="s">
-        <v>225</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
         <v>47</v>
       </c>
-      <c r="H21" t="s">
-        <v>48</v>
-      </c>
       <c r="I21" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="J21" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="K21" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="L21" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="O21" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
-      <c r="R21" t="s"/>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="X21" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="Y21" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>36166</v>
       </c>
-      <c r="B22" t="n">
-        <v>136067</v>
-      </c>
-      <c r="C22" t="s">
-        <v>234</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
         <v>47</v>
       </c>
-      <c r="H22" t="s">
-        <v>48</v>
-      </c>
       <c r="I22" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="J22" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="K22" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="L22" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="O22" t="s">
-        <v>167</v>
+        <v>53</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3335,138 +3156,124 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="X22" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
       <c r="Y22" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>36166</v>
       </c>
-      <c r="B23" t="n">
-        <v>136068</v>
-      </c>
-      <c r="C23" t="s">
-        <v>244</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
       <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
         <v>47</v>
       </c>
-      <c r="H23" t="s">
-        <v>48</v>
-      </c>
       <c r="I23" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c r="J23" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="K23" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="L23" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="O23" t="s">
-        <v>84</v>
+        <v>162</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
-      <c r="R23" t="n">
-        <v>5</v>
-      </c>
+      <c r="R23" t="s"/>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>5</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="X23" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="Y23" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>36166</v>
       </c>
-      <c r="B24" t="n">
-        <v>6944</v>
-      </c>
-      <c r="C24" t="s">
-        <v>252</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
         <v>47</v>
       </c>
-      <c r="H24" t="s">
-        <v>48</v>
-      </c>
       <c r="I24" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="J24" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="K24" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="L24" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="M24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="O24" t="s">
-        <v>259</v>
+        <v>53</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
       <c r="R24" t="n">
-        <v>4</v>
-      </c>
-      <c r="S24" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
         <v>5</v>
@@ -3474,201 +3281,191 @@
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s"/>
-      <c r="X24" t="s"/>
+      <c r="W24" t="s">
+        <v>228</v>
+      </c>
+      <c r="X24" t="s">
+        <v>229</v>
+      </c>
       <c r="Y24" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>36166</v>
       </c>
-      <c r="B25" t="n">
-        <v>136069</v>
-      </c>
-      <c r="C25" t="s">
-        <v>260</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>261</v>
+        <v>238</v>
       </c>
       <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
         <v>47</v>
       </c>
-      <c r="H25" t="s">
-        <v>48</v>
-      </c>
       <c r="I25" t="s">
-        <v>262</v>
+        <v>239</v>
       </c>
       <c r="J25" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="K25" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="L25" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="M25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="O25" t="s">
-        <v>84</v>
+        <v>244</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
       <c r="R25" t="n">
-        <v>5</v>
-      </c>
-      <c r="S25" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="S25" t="n">
+        <v>4</v>
+      </c>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s">
-        <v>266</v>
-      </c>
-      <c r="X25" t="s">
-        <v>267</v>
-      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>268</v>
+        <v>242</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>36166</v>
       </c>
-      <c r="B26" t="n">
-        <v>36495</v>
-      </c>
-      <c r="C26" t="s">
-        <v>269</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
         <v>47</v>
       </c>
-      <c r="H26" t="s">
-        <v>48</v>
-      </c>
       <c r="I26" t="s">
-        <v>271</v>
+        <v>246</v>
       </c>
       <c r="J26" t="s">
-        <v>272</v>
+        <v>247</v>
       </c>
       <c r="K26" t="s">
-        <v>273</v>
+        <v>248</v>
       </c>
       <c r="L26" t="s">
-        <v>274</v>
+        <v>249</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="O26" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="P26" t="s"/>
-      <c r="Q26" t="n">
-        <v>5</v>
-      </c>
-      <c r="R26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
       <c r="S26" t="s"/>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="X26" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="Y26" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>36166</v>
       </c>
-      <c r="B27" t="n">
-        <v>136070</v>
-      </c>
-      <c r="C27" t="s">
-        <v>278</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
         <v>47</v>
       </c>
-      <c r="H27" t="s">
-        <v>48</v>
-      </c>
       <c r="I27" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="J27" t="s">
-        <v>281</v>
+        <v>255</v>
       </c>
       <c r="K27" t="s">
-        <v>282</v>
+        <v>256</v>
       </c>
       <c r="L27" t="s">
-        <v>283</v>
+        <v>257</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>284</v>
+        <v>243</v>
       </c>
       <c r="O27" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="P27" t="s"/>
-      <c r="Q27" t="s"/>
-      <c r="R27" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="s"/>
       <c r="S27" t="s"/>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
@@ -3678,64 +3475,58 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="X27" t="s">
-        <v>286</v>
+        <v>259</v>
       </c>
       <c r="Y27" t="s">
-        <v>287</v>
+        <v>260</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>36166</v>
       </c>
-      <c r="B28" t="n">
-        <v>18625</v>
-      </c>
-      <c r="C28" t="s">
-        <v>288</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>289</v>
+        <v>261</v>
       </c>
       <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
         <v>47</v>
       </c>
-      <c r="H28" t="s">
-        <v>48</v>
-      </c>
       <c r="I28" t="s">
-        <v>290</v>
+        <v>262</v>
       </c>
       <c r="J28" t="s">
-        <v>291</v>
+        <v>263</v>
       </c>
       <c r="K28" t="s">
-        <v>292</v>
+        <v>264</v>
       </c>
       <c r="L28" t="s">
-        <v>293</v>
+        <v>265</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="O28" t="s">
-        <v>167</v>
-      </c>
-      <c r="P28" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
       <c r="R28" t="n">
         <v>5</v>
@@ -3748,69 +3539,69 @@
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s"/>
-      <c r="X28" t="s"/>
+      <c r="W28" t="s">
+        <v>267</v>
+      </c>
+      <c r="X28" t="s">
+        <v>268</v>
+      </c>
       <c r="Y28" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>36166</v>
       </c>
-      <c r="B29" t="n">
-        <v>136071</v>
-      </c>
-      <c r="C29" t="s">
-        <v>294</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>295</v>
+        <v>270</v>
       </c>
       <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
         <v>47</v>
       </c>
-      <c r="H29" t="s">
-        <v>48</v>
-      </c>
       <c r="I29" t="s">
-        <v>296</v>
+        <v>271</v>
       </c>
       <c r="J29" t="s">
-        <v>297</v>
+        <v>272</v>
       </c>
       <c r="K29" t="s">
-        <v>298</v>
+        <v>273</v>
       </c>
       <c r="L29" t="s">
-        <v>299</v>
+        <v>274</v>
       </c>
       <c r="M29" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="O29" t="s">
-        <v>54</v>
-      </c>
-      <c r="P29" t="s"/>
+        <v>162</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
       <c r="Q29" t="s"/>
       <c r="R29" t="n">
-        <v>4</v>
-      </c>
-      <c r="S29" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -3818,119 +3609,113 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>36166</v>
       </c>
-      <c r="B30" t="n">
-        <v>136072</v>
-      </c>
-      <c r="C30" t="s">
-        <v>301</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>302</v>
+        <v>275</v>
       </c>
       <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
         <v>47</v>
       </c>
-      <c r="H30" t="s">
-        <v>48</v>
-      </c>
       <c r="I30" t="s">
-        <v>303</v>
+        <v>276</v>
       </c>
       <c r="J30" t="s">
-        <v>304</v>
+        <v>277</v>
       </c>
       <c r="K30" t="s">
-        <v>305</v>
+        <v>278</v>
       </c>
       <c r="L30" t="s">
-        <v>306</v>
+        <v>279</v>
       </c>
       <c r="M30" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>307</v>
+        <v>243</v>
       </c>
       <c r="O30" t="s">
-        <v>167</v>
+        <v>63</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
-      <c r="R30" t="s"/>
-      <c r="S30" t="s"/>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1</v>
+      </c>
       <c r="T30" t="s"/>
-      <c r="U30" t="s"/>
+      <c r="U30" t="n">
+        <v>1</v>
+      </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s">
-        <v>308</v>
-      </c>
-      <c r="X30" t="s">
-        <v>309</v>
-      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>310</v>
+        <v>280</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>36166</v>
       </c>
-      <c r="B31" t="n">
-        <v>27479</v>
-      </c>
-      <c r="C31" t="s">
-        <v>311</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>312</v>
+        <v>281</v>
       </c>
       <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
         <v>47</v>
       </c>
-      <c r="H31" t="s">
-        <v>48</v>
-      </c>
       <c r="I31" t="s">
-        <v>313</v>
+        <v>282</v>
       </c>
       <c r="J31" t="s">
-        <v>314</v>
+        <v>283</v>
       </c>
       <c r="K31" t="s">
-        <v>315</v>
+        <v>284</v>
       </c>
       <c r="L31" t="s">
-        <v>316</v>
+        <v>285</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>317</v>
+        <v>286</v>
       </c>
       <c r="O31" t="s">
-        <v>259</v>
+        <v>162</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -3942,175 +3727,184 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>318</v>
+        <v>287</v>
       </c>
       <c r="X31" t="s">
-        <v>319</v>
+        <v>288</v>
       </c>
       <c r="Y31" t="s">
-        <v>320</v>
+        <v>289</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>36166</v>
       </c>
-      <c r="B32" t="n">
-        <v>136073</v>
-      </c>
-      <c r="C32" t="s">
-        <v>321</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>322</v>
+        <v>290</v>
       </c>
       <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
         <v>47</v>
       </c>
-      <c r="H32" t="s">
-        <v>48</v>
-      </c>
       <c r="I32" t="s">
-        <v>323</v>
+        <v>291</v>
       </c>
       <c r="J32" t="s">
-        <v>324</v>
+        <v>292</v>
       </c>
       <c r="K32" t="s">
-        <v>325</v>
+        <v>293</v>
       </c>
       <c r="L32" t="s">
-        <v>326</v>
+        <v>294</v>
       </c>
       <c r="M32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
       <c r="O32" t="s">
-        <v>84</v>
-      </c>
-      <c r="P32" t="n">
-        <v>2</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
       <c r="R32" t="s"/>
-      <c r="S32" t="n">
-        <v>1</v>
-      </c>
+      <c r="S32" t="s"/>
       <c r="T32" t="s"/>
-      <c r="U32" t="n">
-        <v>1</v>
-      </c>
+      <c r="U32" t="s"/>
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s"/>
-      <c r="X32" t="s"/>
+      <c r="W32" t="s">
+        <v>296</v>
+      </c>
+      <c r="X32" t="s">
+        <v>297</v>
+      </c>
       <c r="Y32" t="s">
-        <v>326</v>
+        <v>298</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>36166</v>
       </c>
-      <c r="B33" t="n">
-        <v>136074</v>
-      </c>
-      <c r="C33" t="s">
-        <v>327</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>328</v>
+        <v>299</v>
       </c>
       <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
         <v>47</v>
       </c>
-      <c r="H33" t="s">
-        <v>48</v>
-      </c>
       <c r="I33" t="s">
-        <v>329</v>
+        <v>300</v>
       </c>
       <c r="J33" t="s">
-        <v>330</v>
-      </c>
-      <c r="K33" t="s"/>
-      <c r="L33" t="s"/>
-      <c r="M33" t="s"/>
-      <c r="N33" t="s"/>
-      <c r="O33" t="s"/>
-      <c r="P33" t="s"/>
+        <v>301</v>
+      </c>
+      <c r="K33" t="s">
+        <v>302</v>
+      </c>
+      <c r="L33" t="s">
+        <v>303</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2</v>
+      </c>
+      <c r="N33" t="s">
+        <v>295</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="n">
+        <v>2</v>
+      </c>
       <c r="Q33" t="s"/>
       <c r="R33" t="s"/>
-      <c r="S33" t="s"/>
+      <c r="S33" t="n">
+        <v>1</v>
+      </c>
       <c r="T33" t="s"/>
-      <c r="U33" t="s"/>
+      <c r="U33" t="n">
+        <v>1</v>
+      </c>
       <c r="V33" t="n">
         <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>36166</v>
       </c>
-      <c r="B34" t="n">
-        <v>136075</v>
-      </c>
-      <c r="C34" t="s">
-        <v>331</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>332</v>
+        <v>304</v>
       </c>
       <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
         <v>47</v>
       </c>
-      <c r="H34" t="s">
-        <v>48</v>
-      </c>
       <c r="I34" t="s">
-        <v>333</v>
+        <v>305</v>
       </c>
       <c r="J34" t="s">
-        <v>334</v>
+        <v>306</v>
       </c>
       <c r="K34" t="s">
-        <v>335</v>
+        <v>307</v>
       </c>
       <c r="L34" t="s">
-        <v>336</v>
+        <v>308</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>337</v>
+        <v>295</v>
       </c>
       <c r="O34" t="s">
-        <v>84</v>
-      </c>
-      <c r="P34" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
       <c r="Q34" t="n">
         <v>5</v>
       </c>
@@ -4124,69 +3918,63 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>338</v>
+        <v>296</v>
       </c>
       <c r="X34" t="s">
-        <v>339</v>
+        <v>297</v>
       </c>
       <c r="Y34" t="s">
-        <v>340</v>
+        <v>309</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>36166</v>
       </c>
-      <c r="B35" t="n">
-        <v>18625</v>
-      </c>
-      <c r="C35" t="s">
-        <v>288</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>341</v>
+        <v>310</v>
       </c>
       <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
         <v>47</v>
       </c>
-      <c r="H35" t="s">
-        <v>48</v>
-      </c>
       <c r="I35" t="s">
-        <v>342</v>
+        <v>311</v>
       </c>
       <c r="J35" t="s">
-        <v>343</v>
+        <v>312</v>
       </c>
       <c r="K35" t="s">
-        <v>344</v>
+        <v>313</v>
       </c>
       <c r="L35" t="s">
-        <v>345</v>
+        <v>314</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>346</v>
+        <v>315</v>
       </c>
       <c r="O35" t="s">
-        <v>167</v>
-      </c>
-      <c r="P35" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q35" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
       <c r="R35" t="s"/>
-      <c r="S35" t="n">
-        <v>5</v>
-      </c>
+      <c r="S35" t="s"/>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
         <v>5</v>
@@ -4195,65 +3983,61 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>347</v>
+        <v>316</v>
       </c>
       <c r="X35" t="s">
-        <v>348</v>
+        <v>317</v>
       </c>
       <c r="Y35" t="s">
-        <v>349</v>
+        <v>318</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>36166</v>
       </c>
-      <c r="B36" t="n">
-        <v>4365</v>
-      </c>
-      <c r="C36" t="s">
-        <v>350</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>351</v>
+        <v>319</v>
       </c>
       <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
         <v>47</v>
       </c>
-      <c r="H36" t="s">
-        <v>48</v>
-      </c>
       <c r="I36" t="s">
-        <v>352</v>
+        <v>320</v>
       </c>
       <c r="J36" t="s">
-        <v>353</v>
+        <v>321</v>
       </c>
       <c r="K36" t="s">
-        <v>354</v>
+        <v>322</v>
       </c>
       <c r="L36" t="s">
-        <v>355</v>
+        <v>323</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="O36" t="s">
-        <v>84</v>
-      </c>
-      <c r="P36" t="s"/>
-      <c r="Q36" t="n">
-        <v>5</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="s"/>
       <c r="R36" t="s"/>
       <c r="S36" t="n">
         <v>5</v>
@@ -4266,249 +4050,243 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="X36" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
       <c r="Y36" t="s">
-        <v>356</v>
+        <v>327</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>36166</v>
       </c>
-      <c r="B37" t="n">
-        <v>136076</v>
-      </c>
-      <c r="C37" t="s">
-        <v>357</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>358</v>
+        <v>328</v>
       </c>
       <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
         <v>47</v>
       </c>
-      <c r="H37" t="s">
-        <v>48</v>
-      </c>
       <c r="I37" t="s">
-        <v>359</v>
+        <v>329</v>
       </c>
       <c r="J37" t="s">
-        <v>360</v>
+        <v>330</v>
       </c>
       <c r="K37" t="s">
-        <v>361</v>
+        <v>331</v>
       </c>
       <c r="L37" t="s">
-        <v>362</v>
+        <v>332</v>
       </c>
       <c r="M37" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>346</v>
+        <v>315</v>
       </c>
       <c r="O37" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="P37" t="s"/>
-      <c r="Q37" t="s"/>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
       <c r="R37" t="s"/>
-      <c r="S37" t="s"/>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
       <c r="T37" t="s"/>
-      <c r="U37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s"/>
-      <c r="X37" t="s"/>
+      <c r="W37" t="s">
+        <v>325</v>
+      </c>
+      <c r="X37" t="s">
+        <v>326</v>
+      </c>
       <c r="Y37" t="s">
-        <v>363</v>
+        <v>333</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>36166</v>
       </c>
-      <c r="B38" t="n">
-        <v>136077</v>
-      </c>
-      <c r="C38" t="s">
-        <v>364</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>365</v>
+        <v>334</v>
       </c>
       <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
         <v>47</v>
       </c>
-      <c r="H38" t="s">
-        <v>48</v>
-      </c>
       <c r="I38" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J38" t="s">
-        <v>367</v>
+        <v>336</v>
       </c>
       <c r="K38" t="s">
-        <v>368</v>
+        <v>337</v>
       </c>
       <c r="L38" t="s">
-        <v>369</v>
+        <v>338</v>
       </c>
       <c r="M38" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>370</v>
+        <v>324</v>
       </c>
       <c r="O38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P38" t="s"/>
-      <c r="Q38" t="n">
-        <v>3</v>
-      </c>
-      <c r="R38" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
       <c r="S38" t="s"/>
       <c r="T38" t="s"/>
-      <c r="U38" t="n">
-        <v>5</v>
-      </c>
+      <c r="U38" t="s"/>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>371</v>
+        <v>339</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>36166</v>
       </c>
-      <c r="B39" t="n">
-        <v>108232</v>
-      </c>
-      <c r="C39" t="s">
-        <v>372</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>373</v>
+        <v>340</v>
       </c>
       <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
         <v>47</v>
       </c>
-      <c r="H39" t="s">
-        <v>48</v>
-      </c>
       <c r="I39" t="s">
-        <v>374</v>
+        <v>341</v>
       </c>
       <c r="J39" t="s">
-        <v>375</v>
+        <v>342</v>
       </c>
       <c r="K39" t="s">
-        <v>376</v>
+        <v>343</v>
       </c>
       <c r="L39" t="s">
-        <v>377</v>
+        <v>344</v>
       </c>
       <c r="M39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N39" t="s">
-        <v>378</v>
+        <v>345</v>
       </c>
       <c r="O39" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="P39" t="s"/>
-      <c r="Q39" t="s"/>
-      <c r="R39" t="s"/>
+      <c r="Q39" t="n">
+        <v>3</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
       <c r="S39" t="s"/>
       <c r="T39" t="s"/>
-      <c r="U39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>377</v>
+        <v>346</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>36166</v>
       </c>
-      <c r="B40" t="n">
-        <v>136078</v>
-      </c>
-      <c r="C40" t="s">
-        <v>379</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>380</v>
+        <v>347</v>
       </c>
       <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
         <v>47</v>
       </c>
-      <c r="H40" t="s">
-        <v>48</v>
-      </c>
       <c r="I40" t="s">
-        <v>381</v>
+        <v>348</v>
       </c>
       <c r="J40" t="s">
-        <v>382</v>
+        <v>349</v>
       </c>
       <c r="K40" t="s">
-        <v>383</v>
+        <v>350</v>
       </c>
       <c r="L40" t="s">
-        <v>384</v>
+        <v>351</v>
       </c>
       <c r="M40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N40" t="s">
-        <v>385</v>
+        <v>352</v>
       </c>
       <c r="O40" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -4522,54 +4300,50 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>386</v>
+        <v>351</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>36166</v>
       </c>
-      <c r="B41" t="n">
-        <v>1034</v>
-      </c>
-      <c r="C41" t="s">
-        <v>387</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>388</v>
+        <v>353</v>
       </c>
       <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
         <v>47</v>
       </c>
-      <c r="H41" t="s">
-        <v>48</v>
-      </c>
       <c r="I41" t="s">
-        <v>389</v>
+        <v>354</v>
       </c>
       <c r="J41" t="s">
-        <v>390</v>
+        <v>355</v>
       </c>
       <c r="K41" t="s">
-        <v>391</v>
+        <v>356</v>
       </c>
       <c r="L41" t="s">
-        <v>392</v>
+        <v>357</v>
       </c>
       <c r="M41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>393</v>
+        <v>358</v>
       </c>
       <c r="O41" t="s">
-        <v>167</v>
+        <v>53</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -4580,61 +4354,53 @@
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s">
-        <v>394</v>
-      </c>
-      <c r="X41" t="s">
-        <v>395</v>
-      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>396</v>
+        <v>359</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>36166</v>
       </c>
-      <c r="B42" t="n">
-        <v>136079</v>
-      </c>
-      <c r="C42" t="s">
-        <v>397</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>398</v>
+        <v>360</v>
       </c>
       <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
         <v>47</v>
       </c>
-      <c r="H42" t="s">
-        <v>48</v>
-      </c>
       <c r="I42" t="s">
-        <v>399</v>
+        <v>361</v>
       </c>
       <c r="J42" t="s">
-        <v>400</v>
+        <v>362</v>
       </c>
       <c r="K42" t="s">
-        <v>401</v>
+        <v>363</v>
       </c>
       <c r="L42" t="s">
-        <v>402</v>
+        <v>364</v>
       </c>
       <c r="M42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N42" t="s">
-        <v>393</v>
+        <v>365</v>
       </c>
       <c r="O42" t="s">
-        <v>84</v>
+        <v>162</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -4646,283 +4412,328 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>394</v>
+        <v>366</v>
       </c>
       <c r="X42" t="s">
-        <v>395</v>
+        <v>367</v>
       </c>
       <c r="Y42" t="s">
-        <v>403</v>
+        <v>368</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>36166</v>
       </c>
-      <c r="B43" t="n">
-        <v>136080</v>
-      </c>
-      <c r="C43" t="s">
-        <v>404</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>405</v>
+        <v>369</v>
       </c>
       <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
         <v>47</v>
       </c>
-      <c r="H43" t="s">
-        <v>48</v>
-      </c>
       <c r="I43" t="s">
-        <v>406</v>
+        <v>370</v>
       </c>
       <c r="J43" t="s">
-        <v>407</v>
+        <v>371</v>
       </c>
       <c r="K43" t="s">
-        <v>408</v>
+        <v>372</v>
       </c>
       <c r="L43" t="s">
-        <v>409</v>
+        <v>373</v>
       </c>
       <c r="M43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N43" t="s">
-        <v>410</v>
+        <v>365</v>
       </c>
       <c r="O43" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
-      <c r="R43" t="n">
-        <v>4</v>
-      </c>
-      <c r="S43" t="n">
-        <v>1</v>
-      </c>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
       <c r="T43" t="s"/>
-      <c r="U43" t="n">
-        <v>2</v>
-      </c>
+      <c r="U43" t="s"/>
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s"/>
-      <c r="X43" t="s"/>
+      <c r="W43" t="s">
+        <v>366</v>
+      </c>
+      <c r="X43" t="s">
+        <v>367</v>
+      </c>
       <c r="Y43" t="s">
-        <v>409</v>
+        <v>374</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>36166</v>
       </c>
-      <c r="B44" t="n">
-        <v>67863</v>
-      </c>
-      <c r="C44" t="s">
-        <v>411</v>
-      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>412</v>
+        <v>375</v>
       </c>
       <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
         <v>47</v>
       </c>
-      <c r="H44" t="s">
-        <v>48</v>
-      </c>
       <c r="I44" t="s">
-        <v>413</v>
+        <v>376</v>
       </c>
       <c r="J44" t="s">
-        <v>414</v>
+        <v>377</v>
       </c>
       <c r="K44" t="s">
-        <v>415</v>
+        <v>378</v>
       </c>
       <c r="L44" t="s">
-        <v>416</v>
+        <v>379</v>
       </c>
       <c r="M44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N44" t="s">
-        <v>417</v>
+        <v>380</v>
       </c>
       <c r="O44" t="s">
-        <v>84</v>
-      </c>
-      <c r="P44" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q44" t="n">
+        <v>53</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="n">
         <v>4</v>
       </c>
-      <c r="R44" t="s"/>
-      <c r="S44" t="s"/>
+      <c r="S44" t="n">
+        <v>1</v>
+      </c>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s">
-        <v>418</v>
-      </c>
-      <c r="X44" t="s">
-        <v>419</v>
-      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>420</v>
+        <v>379</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>36166</v>
       </c>
-      <c r="B45" t="n">
-        <v>136081</v>
-      </c>
-      <c r="C45" t="s">
-        <v>421</v>
-      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>422</v>
+        <v>381</v>
       </c>
       <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
         <v>47</v>
       </c>
-      <c r="H45" t="s">
-        <v>48</v>
-      </c>
       <c r="I45" t="s">
-        <v>423</v>
+        <v>382</v>
       </c>
       <c r="J45" t="s">
-        <v>424</v>
+        <v>383</v>
       </c>
       <c r="K45" t="s">
-        <v>425</v>
+        <v>384</v>
       </c>
       <c r="L45" t="s">
-        <v>426</v>
+        <v>385</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>427</v>
+        <v>386</v>
       </c>
       <c r="O45" t="s">
-        <v>259</v>
-      </c>
-      <c r="P45" t="s"/>
-      <c r="Q45" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>4</v>
+      </c>
       <c r="R45" t="s"/>
       <c r="S45" t="s"/>
       <c r="T45" t="s"/>
-      <c r="U45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
-      <c r="W45" t="s"/>
-      <c r="X45" t="s"/>
+      <c r="W45" t="s">
+        <v>387</v>
+      </c>
+      <c r="X45" t="s">
+        <v>388</v>
+      </c>
       <c r="Y45" t="s">
-        <v>428</v>
+        <v>389</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>36166</v>
       </c>
-      <c r="B46" t="n">
-        <v>27174</v>
-      </c>
-      <c r="C46" t="s">
-        <v>429</v>
-      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>430</v>
+        <v>390</v>
       </c>
       <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
         <v>47</v>
       </c>
-      <c r="H46" t="s">
-        <v>48</v>
-      </c>
       <c r="I46" t="s">
-        <v>431</v>
+        <v>391</v>
       </c>
       <c r="J46" t="s">
-        <v>432</v>
+        <v>392</v>
       </c>
       <c r="K46" t="s">
-        <v>433</v>
+        <v>393</v>
       </c>
       <c r="L46" t="s">
-        <v>434</v>
+        <v>394</v>
       </c>
       <c r="M46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>435</v>
+        <v>395</v>
       </c>
       <c r="O46" t="s">
-        <v>259</v>
-      </c>
-      <c r="P46" t="n">
-        <v>5</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
       <c r="R46" t="s"/>
-      <c r="S46" t="n">
-        <v>5</v>
-      </c>
+      <c r="S46" t="s"/>
       <c r="T46" t="s"/>
-      <c r="U46" t="n">
-        <v>5</v>
-      </c>
+      <c r="U46" t="s"/>
       <c r="V46" t="n">
         <v>0</v>
       </c>
-      <c r="W46" t="s">
-        <v>436</v>
-      </c>
-      <c r="X46" t="s">
-        <v>437</v>
-      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>438</v>
+        <v>396</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>36166</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>397</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>398</v>
+      </c>
+      <c r="J47" t="s">
+        <v>399</v>
+      </c>
+      <c r="K47" t="s">
+        <v>400</v>
+      </c>
+      <c r="L47" t="s">
+        <v>401</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3</v>
+      </c>
+      <c r="N47" t="s">
+        <v>402</v>
+      </c>
+      <c r="O47" t="s">
+        <v>244</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>403</v>
+      </c>
+      <c r="X47" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>405</v>
       </c>
     </row>
   </sheetData>
